--- a/Documents/DLYH_MECHANICS_CONCEPT.xlsx
+++ b/Documents/DLYH_MECHANICS_CONCEPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\DontLoseYourHead\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC290887-AEDA-4916-A119-08B147C035CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33363255-5EF4-4F8F-A6D6-FFFCFA5E407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2CF4C6FF-296F-4809-A32B-4EAC3125551D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2CF4C6FF-296F-4809-A32B-4EAC3125551D}"/>
   </bookViews>
   <sheets>
     <sheet name="claude playtest" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="121">
   <si>
     <t>A</t>
   </si>
@@ -446,12 +446,423 @@
   <si>
     <t>PLAYER COLOR</t>
   </si>
+  <si>
+    <t>EXECUTIONER</t>
+  </si>
+  <si>
+    <t>Guessed Words</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>ROAD</t>
+  </si>
+  <si>
+    <t>MISSES: 6/24</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+  </si>
+  <si>
+    <t>MISSES: 2/20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +979,13 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1685,7 +2103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="419">
+  <cellXfs count="467">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2461,6 +2879,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2647,23 +3069,23 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2674,15 +3096,69 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2692,6 +3168,15 @@
     <xf numFmtId="0" fontId="12" fillId="18" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2717,33 +3202,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2854,36 +3312,132 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10082,6 +10636,651 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>125</xdr:col>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>215946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>128</xdr:col>
+      <xdr:colOff>193831</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>46557</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="Group 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F29510F-5C3C-EB23-3F84-E9202B4FFD99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="28730864" y="6388146"/>
+          <a:ext cx="723767" cy="745011"/>
+          <a:chOff x="30159614" y="6150021"/>
+          <a:chExt cx="723767" cy="745011"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Graphic 5" descr="Back with solid fill">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FC38AF-7736-8FC3-F003-9156DD81FA43}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="30178664" y="6152328"/>
+            <a:ext cx="241797" cy="241797"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="Graphic 10" descr="Close with solid fill">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748E2FBE-BE32-B830-E72E-BC9EFAA05AE9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="30641655" y="6153823"/>
+            <a:ext cx="241726" cy="245909"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="Graphic 6" descr="Checkmark with solid fill">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78474BDD-F38D-54B7-E555-D8606B29A7C7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="30414897" y="6150021"/>
+            <a:ext cx="249667" cy="249667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="71" name="Graphic 70" descr="Back with solid fill">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAAC0C6-E32A-8EAF-82F2-8C2089BA6CA1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="30169139" y="6399978"/>
+            <a:ext cx="241797" cy="241797"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="72" name="Graphic 71" descr="Close with solid fill">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E478AF-80B1-497A-8B52-A40CB20083D0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="30632130" y="6401473"/>
+            <a:ext cx="241726" cy="245909"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="73" name="Graphic 6" descr="Checkmark with solid fill">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C0111A-02BE-99C2-5C47-F98DF6BE4071}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="30405372" y="6397671"/>
+            <a:ext cx="249667" cy="249667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="77" name="Graphic 76" descr="Back with solid fill">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8A2EF2-01F6-840A-D6BF-F56148A5C905}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="30159614" y="6647628"/>
+            <a:ext cx="241797" cy="241797"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="80" name="Graphic 79" descr="Close with solid fill">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3D0328-62F2-24DF-8280-7B549A5B074A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="30622605" y="6649123"/>
+            <a:ext cx="241726" cy="245909"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="85" name="Graphic 6" descr="Checkmark with solid fill">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571157E4-4354-99E2-BB11-1721B5B5AECA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="30395847" y="6645321"/>
+            <a:ext cx="249667" cy="249667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>125</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Rectangle 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC1EDDB-B324-4A91-8983-0AF4F399A164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28155901" y="6438899"/>
+          <a:ext cx="552450" cy="161926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WORD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>125</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="Rectangle 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A30CB6A-1BEC-A67D-C857-21463AAD70A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28155901" y="6667499"/>
+          <a:ext cx="552450" cy="161926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WORD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>125</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rectangle 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF948CA-CF6C-D116-7ACA-DAC12ED03D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28155901" y="6905624"/>
+          <a:ext cx="552450" cy="161926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WORD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4BB4C0-4057-8F13-7274-92764B9D49CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="29718000" y="6172200"/>
+          <a:ext cx="2981325" cy="4581525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10113,8 +11312,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="51954" y="7403522"/>
-          <a:ext cx="5385955" cy="4368512"/>
+          <a:off x="51954" y="7308272"/>
+          <a:ext cx="5316682" cy="4312228"/>
           <a:chOff x="13854545" y="1939636"/>
           <a:chExt cx="5316682" cy="4312228"/>
         </a:xfrm>
@@ -10816,16 +12015,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19691</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>72919</xdr:rowOff>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>238285</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>280788</xdr:rowOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>280147</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10840,8 +12039,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7020566" y="12074419"/>
-          <a:ext cx="885344" cy="2541494"/>
+          <a:off x="25844838" y="7576530"/>
+          <a:ext cx="1293770" cy="3562117"/>
           <a:chOff x="2597203" y="4031717"/>
           <a:chExt cx="933210" cy="2687411"/>
         </a:xfrm>
@@ -11239,7 +12438,10 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
           </xdr:spPr>
           <xdr:style>
@@ -12150,8 +13352,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11107015" y="326881"/>
-          <a:ext cx="14182726" cy="6700837"/>
+          <a:off x="10964140" y="326881"/>
+          <a:ext cx="14000885" cy="6609917"/>
           <a:chOff x="10964140" y="326881"/>
           <a:chExt cx="14000885" cy="6609917"/>
         </a:xfrm>
@@ -13999,15 +15201,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>78</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>120</xdr:col>
-      <xdr:colOff>189912</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>189913</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>33824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14031,12 +15233,1596 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25665545" y="2961409"/>
-          <a:ext cx="14009822" cy="6614733"/>
+          <a:off x="27003376" y="0"/>
+          <a:ext cx="14191662" cy="6701324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>280147</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="74" name="Group 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF30225-DDBD-4653-88BD-8F116A87370E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="28148157" y="7576530"/>
+          <a:ext cx="1293769" cy="3562117"/>
+          <a:chOff x="2597203" y="4031717"/>
+          <a:chExt cx="933210" cy="2687411"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="121" name="Group 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8CE17E-58B3-3492-C60D-CC57C979F60E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2597203" y="4031717"/>
+            <a:ext cx="933210" cy="1993447"/>
+            <a:chOff x="3676650" y="3419475"/>
+            <a:chExt cx="923925" cy="1981201"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="192" name="Rectangle 191">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AEC4CB-466C-4376-445B-2CDCE18C49A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3676650" y="3419475"/>
+              <a:ext cx="923925" cy="219075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="193" name="Rectangle 192">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E710D2CB-D605-5B18-062A-72B2FD76436B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3676650" y="5172075"/>
+              <a:ext cx="923925" cy="219075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="194" name="Rectangle 193">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E076F463-6331-158E-DAEE-AFBADA06C6EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3676650" y="4991100"/>
+              <a:ext cx="923925" cy="219075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="195" name="Group 194">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D289E0C-F03A-52AE-96FC-66CF2DA5CBCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm flipH="1">
+              <a:off x="3676650" y="4067175"/>
+              <a:ext cx="923925" cy="514350"/>
+              <a:chOff x="3667125" y="923925"/>
+              <a:chExt cx="923925" cy="514350"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="203" name="Rectangle 202">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152A3F04-A72D-61E0-3C10-0299813E951F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3667125" y="923925"/>
+                <a:ext cx="923925" cy="219075"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="204" name="Flowchart: Manual Input 2">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D84A14C-ABBC-D76E-F223-5296622C0DE4}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000">
+                <a:off x="3686174" y="1152520"/>
+                <a:ext cx="886786" cy="285755"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 10000"/>
+                  <a:gd name="connsiteY0" fmla="*/ 2000 h 10000"/>
+                  <a:gd name="connsiteX1" fmla="*/ 10000 w 10000"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 10000"/>
+                  <a:gd name="connsiteX2" fmla="*/ 10000 w 10000"/>
+                  <a:gd name="connsiteY2" fmla="*/ 10000 h 10000"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 10000"/>
+                  <a:gd name="connsiteY3" fmla="*/ 10000 h 10000"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 10000"/>
+                  <a:gd name="connsiteY4" fmla="*/ 2000 h 10000"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 10104"/>
+                  <a:gd name="connsiteY0" fmla="*/ 4069 h 10000"/>
+                  <a:gd name="connsiteX1" fmla="*/ 10104 w 10104"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 10000"/>
+                  <a:gd name="connsiteX2" fmla="*/ 10104 w 10104"/>
+                  <a:gd name="connsiteY2" fmla="*/ 10000 h 10000"/>
+                  <a:gd name="connsiteX3" fmla="*/ 104 w 10104"/>
+                  <a:gd name="connsiteY3" fmla="*/ 10000 h 10000"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 10104"/>
+                  <a:gd name="connsiteY4" fmla="*/ 4069 h 10000"/>
+                  <a:gd name="connsiteX0" fmla="*/ 316 w 10003"/>
+                  <a:gd name="connsiteY0" fmla="*/ 4069 h 10000"/>
+                  <a:gd name="connsiteX1" fmla="*/ 10003 w 10003"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 10000"/>
+                  <a:gd name="connsiteX2" fmla="*/ 10003 w 10003"/>
+                  <a:gd name="connsiteY2" fmla="*/ 10000 h 10000"/>
+                  <a:gd name="connsiteX3" fmla="*/ 3 w 10003"/>
+                  <a:gd name="connsiteY3" fmla="*/ 10000 h 10000"/>
+                  <a:gd name="connsiteX4" fmla="*/ 316 w 10003"/>
+                  <a:gd name="connsiteY4" fmla="*/ 4069 h 10000"/>
+                  <a:gd name="connsiteX0" fmla="*/ 11 w 9698"/>
+                  <a:gd name="connsiteY0" fmla="*/ 4069 h 10345"/>
+                  <a:gd name="connsiteX1" fmla="*/ 9698 w 9698"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 10345"/>
+                  <a:gd name="connsiteX2" fmla="*/ 9698 w 9698"/>
+                  <a:gd name="connsiteY2" fmla="*/ 10000 h 10345"/>
+                  <a:gd name="connsiteX3" fmla="*/ 10 w 9698"/>
+                  <a:gd name="connsiteY3" fmla="*/ 10345 h 10345"/>
+                  <a:gd name="connsiteX4" fmla="*/ 11 w 9698"/>
+                  <a:gd name="connsiteY4" fmla="*/ 4069 h 10345"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX0" y="connsiteY0"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX1" y="connsiteY1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX2" y="connsiteY2"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX3" y="connsiteY3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX4" y="connsiteY4"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="l" t="t" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="9698" h="10345">
+                    <a:moveTo>
+                      <a:pt x="11" y="4069"/>
+                    </a:moveTo>
+                    <a:lnTo>
+                      <a:pt x="9698" y="0"/>
+                    </a:lnTo>
+                    <a:lnTo>
+                      <a:pt x="9698" y="10000"/>
+                    </a:lnTo>
+                    <a:lnTo>
+                      <a:pt x="10" y="10345"/>
+                    </a:lnTo>
+                    <a:cubicBezTo>
+                      <a:pt x="-25" y="8368"/>
+                      <a:pt x="46" y="6046"/>
+                      <a:pt x="11" y="4069"/>
+                    </a:cubicBezTo>
+                    <a:close/>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1003">
+                <a:schemeClr val="lt2"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="196" name="Oval 195">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A53CB9F-61C9-48E9-C337-37573BD5866A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3924300" y="4991100"/>
+              <a:ext cx="438150" cy="409576"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="197" name="Rectangle 196">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B55390A-D6F4-89F5-C8AB-32DED77B4025}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3676651" y="3429001"/>
+              <a:ext cx="133350" cy="1965960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="198" name="Rectangle 197">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AA1DDA-AE1A-0596-5682-9F32E5E60A19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4467225" y="3429001"/>
+              <a:ext cx="133350" cy="1962149"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="199" name="Oval 198">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E76B1AB-406D-B95F-4D4A-46646C29D60D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4021409" y="5085421"/>
+              <a:ext cx="84796" cy="85725"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="200" name="Oval 199">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073DBDBD-9C07-30B9-68F4-1BB2C0894213}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4165445" y="5084492"/>
+              <a:ext cx="84796" cy="85725"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="201" name="Flowchart: Stored Data 200">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4FBA93-5EFD-0C28-B470-B3290D04E078}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="4105043" y="5210640"/>
+              <a:ext cx="70624" cy="149612"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartOnlineStorage">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="122" name="Group 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B650A8A4-6C68-FA87-16C4-15AD0624EC42}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2597204" y="6070467"/>
+            <a:ext cx="916482" cy="648661"/>
+            <a:chOff x="3657601" y="2343150"/>
+            <a:chExt cx="914400" cy="647700"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="155" name="Trapezoid 154">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CDDD333-8CDA-BD7C-554C-5FD3A5FC4C2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="3771900" y="2400300"/>
+              <a:ext cx="704850" cy="590550"/>
+            </a:xfrm>
+            <a:prstGeom prst="trapezoid">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:pattFill prst="pct30">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="156" name="Flowchart: Terminator 155">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D327D8C-48AC-424B-C7BF-311DC929F186}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3657601" y="2343150"/>
+              <a:ext cx="914400" cy="85725"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartTerminator">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="123" name="Straight Connector 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799D0A0D-439F-1B92-7CD6-3710185F4C73}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3410372" y="5170319"/>
+            <a:ext cx="87887" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="124" name="Straight Connector 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDCD7B8-775B-88AD-EE6F-2893FC1B293B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3410372" y="4938999"/>
+            <a:ext cx="87887" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="125" name="Straight Connector 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C058E104-D17D-6D38-83C9-14AF9DE909D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3410372" y="5270613"/>
+            <a:ext cx="87887" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="129" name="Straight Connector 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C70105-7EAA-6288-A640-EE77CCC2628A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3410372" y="5048816"/>
+            <a:ext cx="87887" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="130" name="Straight Connector 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C45BB7A8-34A2-FE25-0BB8-5703B4D2C111}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3410372" y="4805587"/>
+            <a:ext cx="87887" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="131" name="Straight Connector 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9EE192-937B-9B5C-E03E-428924F74FB2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3410372" y="4698152"/>
+            <a:ext cx="87887" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="133" name="Straight Connector 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C767366C-E7A1-1C8A-6A60-20FE3CC35D8F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3410372" y="4476356"/>
+            <a:ext cx="87887" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="134" name="Straight Connector 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF021EB-EA0F-4179-3CF9-97AFF67732D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3410372" y="4245034"/>
+            <a:ext cx="87887" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="151" name="Straight Connector 150">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CF2A39-B5ED-1947-63A2-7322ED84F5A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3410372" y="4576649"/>
+            <a:ext cx="87887" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="152" name="Straight Connector 151">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579A9F98-CB95-08C7-86C1-8E9980A028B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3410372" y="4354852"/>
+            <a:ext cx="87887" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="153" name="Straight Connector 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A918395-B611-35F2-0FD4-430E859930FC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3410372" y="4123530"/>
+            <a:ext cx="87887" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="154" name="Arrow: Right 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F21AC7A-9084-02E6-53F8-BAE194F174CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3077063" y="4763627"/>
+            <a:ext cx="303125" cy="67407"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>173180</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>311727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="Rectangle: Rounded Corners 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E54699F-59EB-B090-C48B-C2A36D9F7D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33302863" y="7914409"/>
+          <a:ext cx="761999" cy="294409"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Gues</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Word</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>65808</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>169716</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>308264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="Rectangle: Rounded Corners 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80429DCE-C87D-4FE8-A9CF-610AC838653C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33299399" y="8239991"/>
+          <a:ext cx="761999" cy="294409"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Gues</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Word</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>62345</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>166253</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="Rectangle: Rounded Corners 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E014EF6F-6766-4A26-A95A-60BA6128E9E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33295936" y="8565573"/>
+          <a:ext cx="761999" cy="294409"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Gues</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Word</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>148</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="210" name="Picture 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF5AB5FB-2D91-1DAF-DB02-F28E06A42D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="36004500" y="7667625"/>
+          <a:ext cx="13344525" cy="6677025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -17281,22 +20067,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:54" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="277" t="s">
+      <c r="D1" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
-      <c r="L1" s="279"/>
-      <c r="N1" s="286" t="s">
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="281"/>
+      <c r="N1" s="288" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="287"/>
-      <c r="P1" s="288"/>
+      <c r="O1" s="289"/>
+      <c r="P1" s="290"/>
       <c r="AA1" s="112" t="s">
         <v>52</v>
       </c>
@@ -17352,9 +20138,9 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="18"/>
-      <c r="N2" s="289"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="291"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="292"/>
+      <c r="P2" s="293"/>
       <c r="T2" s="109" t="s">
         <v>48</v>
       </c>
@@ -17418,9 +20204,9 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="18"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="293"/>
-      <c r="P3" s="294"/>
+      <c r="N3" s="294"/>
+      <c r="O3" s="295"/>
+      <c r="P3" s="296"/>
       <c r="T3" s="109" t="s">
         <v>36</v>
       </c>
@@ -17587,14 +20373,14 @@
       <c r="P5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="283" t="s">
+      <c r="T5" s="285" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="284"/>
-      <c r="V5" s="284"/>
-      <c r="W5" s="284"/>
-      <c r="X5" s="284"/>
-      <c r="Y5" s="285"/>
+      <c r="U5" s="286"/>
+      <c r="V5" s="286"/>
+      <c r="W5" s="286"/>
+      <c r="X5" s="286"/>
+      <c r="Y5" s="287"/>
       <c r="AA5" s="112" t="s">
         <v>48</v>
       </c>
@@ -18158,23 +20944,23 @@
       </c>
     </row>
     <row r="15" spans="4:54" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="280" t="s">
+      <c r="D15" s="282" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="281"/>
-      <c r="F15" s="281"/>
-      <c r="G15" s="281"/>
-      <c r="H15" s="281"/>
-      <c r="I15" s="281"/>
-      <c r="J15" s="281"/>
-      <c r="K15" s="281"/>
-      <c r="L15" s="282"/>
+      <c r="E15" s="283"/>
+      <c r="F15" s="283"/>
+      <c r="G15" s="283"/>
+      <c r="H15" s="283"/>
+      <c r="I15" s="283"/>
+      <c r="J15" s="283"/>
+      <c r="K15" s="283"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="286" t="s">
+      <c r="N15" s="288" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="287"/>
-      <c r="P15" s="288"/>
+      <c r="O15" s="289"/>
+      <c r="P15" s="290"/>
       <c r="T15" s="109" t="s">
         <v>36</v>
       </c>
@@ -18231,9 +21017,9 @@
       <c r="K16" s="17"/>
       <c r="L16" s="18"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="289"/>
-      <c r="O16" s="290"/>
-      <c r="P16" s="291"/>
+      <c r="N16" s="291"/>
+      <c r="O16" s="292"/>
+      <c r="P16" s="293"/>
       <c r="AK16" s="109" t="s">
         <v>56</v>
       </c>
@@ -18283,17 +21069,17 @@
       <c r="K17" s="17"/>
       <c r="L17" s="18"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="292"/>
-      <c r="O17" s="293"/>
-      <c r="P17" s="294"/>
-      <c r="T17" s="283" t="s">
+      <c r="N17" s="294"/>
+      <c r="O17" s="295"/>
+      <c r="P17" s="296"/>
+      <c r="T17" s="285" t="s">
         <v>57</v>
       </c>
-      <c r="U17" s="284"/>
-      <c r="V17" s="284"/>
-      <c r="W17" s="284"/>
-      <c r="X17" s="284"/>
-      <c r="Y17" s="285"/>
+      <c r="U17" s="286"/>
+      <c r="V17" s="286"/>
+      <c r="W17" s="286"/>
+      <c r="X17" s="286"/>
+      <c r="Y17" s="287"/>
       <c r="AK17" s="109" t="s">
         <v>36</v>
       </c>
@@ -19388,279 +22174,279 @@
       <c r="DI1" s="175"/>
     </row>
     <row r="2" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="295" t="s">
+      <c r="B2" s="297" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="296"/>
-      <c r="N2" s="297"/>
-      <c r="P2" s="295" t="s">
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="298"/>
+      <c r="N2" s="299"/>
+      <c r="P2" s="297" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="296"/>
-      <c r="R2" s="296"/>
-      <c r="S2" s="296"/>
-      <c r="T2" s="296"/>
-      <c r="U2" s="296"/>
-      <c r="V2" s="296"/>
-      <c r="W2" s="296"/>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="296"/>
-      <c r="Z2" s="296"/>
-      <c r="AA2" s="296"/>
-      <c r="AB2" s="296"/>
-      <c r="AC2" s="296"/>
-      <c r="AD2" s="296"/>
-      <c r="AE2" s="296"/>
-      <c r="AF2" s="296"/>
-      <c r="AG2" s="296"/>
-      <c r="AH2" s="296"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="296"/>
-      <c r="AK2" s="296"/>
-      <c r="AL2" s="296"/>
-      <c r="AM2" s="296"/>
-      <c r="AN2" s="296"/>
-      <c r="AO2" s="296"/>
-      <c r="AP2" s="297"/>
-      <c r="AR2" s="295" t="s">
+      <c r="Q2" s="298"/>
+      <c r="R2" s="298"/>
+      <c r="S2" s="298"/>
+      <c r="T2" s="298"/>
+      <c r="U2" s="298"/>
+      <c r="V2" s="298"/>
+      <c r="W2" s="298"/>
+      <c r="X2" s="298"/>
+      <c r="Y2" s="298"/>
+      <c r="Z2" s="298"/>
+      <c r="AA2" s="298"/>
+      <c r="AB2" s="298"/>
+      <c r="AC2" s="298"/>
+      <c r="AD2" s="298"/>
+      <c r="AE2" s="298"/>
+      <c r="AF2" s="298"/>
+      <c r="AG2" s="298"/>
+      <c r="AH2" s="298"/>
+      <c r="AI2" s="298"/>
+      <c r="AJ2" s="298"/>
+      <c r="AK2" s="298"/>
+      <c r="AL2" s="298"/>
+      <c r="AM2" s="298"/>
+      <c r="AN2" s="298"/>
+      <c r="AO2" s="298"/>
+      <c r="AP2" s="299"/>
+      <c r="AR2" s="297" t="s">
         <v>79</v>
       </c>
-      <c r="AS2" s="296"/>
-      <c r="AT2" s="296"/>
-      <c r="AU2" s="296"/>
-      <c r="AV2" s="296"/>
-      <c r="AW2" s="296"/>
-      <c r="AX2" s="296"/>
-      <c r="AY2" s="296"/>
-      <c r="AZ2" s="296"/>
-      <c r="BA2" s="296"/>
-      <c r="BB2" s="296"/>
-      <c r="BC2" s="296"/>
-      <c r="BD2" s="296"/>
-      <c r="BE2" s="296"/>
-      <c r="BF2" s="296"/>
-      <c r="BG2" s="296"/>
-      <c r="BH2" s="296"/>
-      <c r="BI2" s="296"/>
-      <c r="BJ2" s="296"/>
-      <c r="BK2" s="296"/>
-      <c r="BL2" s="296"/>
-      <c r="BM2" s="296"/>
-      <c r="BN2" s="296"/>
-      <c r="BO2" s="296"/>
-      <c r="BP2" s="296"/>
-      <c r="BQ2" s="296"/>
-      <c r="BR2" s="297"/>
-      <c r="BT2" s="295" t="s">
+      <c r="AS2" s="298"/>
+      <c r="AT2" s="298"/>
+      <c r="AU2" s="298"/>
+      <c r="AV2" s="298"/>
+      <c r="AW2" s="298"/>
+      <c r="AX2" s="298"/>
+      <c r="AY2" s="298"/>
+      <c r="AZ2" s="298"/>
+      <c r="BA2" s="298"/>
+      <c r="BB2" s="298"/>
+      <c r="BC2" s="298"/>
+      <c r="BD2" s="298"/>
+      <c r="BE2" s="298"/>
+      <c r="BF2" s="298"/>
+      <c r="BG2" s="298"/>
+      <c r="BH2" s="298"/>
+      <c r="BI2" s="298"/>
+      <c r="BJ2" s="298"/>
+      <c r="BK2" s="298"/>
+      <c r="BL2" s="298"/>
+      <c r="BM2" s="298"/>
+      <c r="BN2" s="298"/>
+      <c r="BO2" s="298"/>
+      <c r="BP2" s="298"/>
+      <c r="BQ2" s="298"/>
+      <c r="BR2" s="299"/>
+      <c r="BT2" s="297" t="s">
         <v>80</v>
       </c>
-      <c r="BU2" s="296"/>
-      <c r="BV2" s="296"/>
-      <c r="BW2" s="296"/>
-      <c r="BX2" s="296"/>
-      <c r="BY2" s="296"/>
-      <c r="BZ2" s="296"/>
-      <c r="CA2" s="296"/>
-      <c r="CB2" s="296"/>
-      <c r="CC2" s="296"/>
-      <c r="CD2" s="296"/>
-      <c r="CE2" s="296"/>
-      <c r="CF2" s="296"/>
-      <c r="CG2" s="296"/>
-      <c r="CH2" s="296"/>
-      <c r="CI2" s="296"/>
-      <c r="CJ2" s="296"/>
-      <c r="CK2" s="296"/>
-      <c r="CL2" s="296"/>
-      <c r="CM2" s="296"/>
-      <c r="CN2" s="296"/>
-      <c r="CO2" s="296"/>
-      <c r="CP2" s="296"/>
-      <c r="CQ2" s="296"/>
-      <c r="CR2" s="296"/>
-      <c r="CS2" s="296"/>
-      <c r="CT2" s="297"/>
+      <c r="BU2" s="298"/>
+      <c r="BV2" s="298"/>
+      <c r="BW2" s="298"/>
+      <c r="BX2" s="298"/>
+      <c r="BY2" s="298"/>
+      <c r="BZ2" s="298"/>
+      <c r="CA2" s="298"/>
+      <c r="CB2" s="298"/>
+      <c r="CC2" s="298"/>
+      <c r="CD2" s="298"/>
+      <c r="CE2" s="298"/>
+      <c r="CF2" s="298"/>
+      <c r="CG2" s="298"/>
+      <c r="CH2" s="298"/>
+      <c r="CI2" s="298"/>
+      <c r="CJ2" s="298"/>
+      <c r="CK2" s="298"/>
+      <c r="CL2" s="298"/>
+      <c r="CM2" s="298"/>
+      <c r="CN2" s="298"/>
+      <c r="CO2" s="298"/>
+      <c r="CP2" s="298"/>
+      <c r="CQ2" s="298"/>
+      <c r="CR2" s="298"/>
+      <c r="CS2" s="298"/>
+      <c r="CT2" s="299"/>
       <c r="CU2" s="175"/>
-      <c r="CV2" s="295" t="s">
+      <c r="CV2" s="297" t="s">
         <v>85</v>
       </c>
-      <c r="CW2" s="296"/>
-      <c r="CX2" s="296"/>
-      <c r="CY2" s="296"/>
-      <c r="CZ2" s="296"/>
-      <c r="DA2" s="296"/>
-      <c r="DB2" s="296"/>
-      <c r="DC2" s="296"/>
-      <c r="DD2" s="296"/>
-      <c r="DE2" s="296"/>
-      <c r="DF2" s="296"/>
-      <c r="DG2" s="296"/>
-      <c r="DH2" s="296"/>
-      <c r="DI2" s="296"/>
-      <c r="DJ2" s="296"/>
-      <c r="DK2" s="296"/>
-      <c r="DL2" s="296"/>
-      <c r="DM2" s="296"/>
-      <c r="DN2" s="296"/>
-      <c r="DO2" s="296"/>
-      <c r="DP2" s="296"/>
-      <c r="DQ2" s="296"/>
-      <c r="DR2" s="296"/>
-      <c r="DS2" s="296"/>
-      <c r="DT2" s="296"/>
-      <c r="DU2" s="296"/>
-      <c r="DV2" s="297"/>
+      <c r="CW2" s="298"/>
+      <c r="CX2" s="298"/>
+      <c r="CY2" s="298"/>
+      <c r="CZ2" s="298"/>
+      <c r="DA2" s="298"/>
+      <c r="DB2" s="298"/>
+      <c r="DC2" s="298"/>
+      <c r="DD2" s="298"/>
+      <c r="DE2" s="298"/>
+      <c r="DF2" s="298"/>
+      <c r="DG2" s="298"/>
+      <c r="DH2" s="298"/>
+      <c r="DI2" s="298"/>
+      <c r="DJ2" s="298"/>
+      <c r="DK2" s="298"/>
+      <c r="DL2" s="298"/>
+      <c r="DM2" s="298"/>
+      <c r="DN2" s="298"/>
+      <c r="DO2" s="298"/>
+      <c r="DP2" s="298"/>
+      <c r="DQ2" s="298"/>
+      <c r="DR2" s="298"/>
+      <c r="DS2" s="298"/>
+      <c r="DT2" s="298"/>
+      <c r="DU2" s="298"/>
+      <c r="DV2" s="299"/>
     </row>
     <row r="3" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="301" t="s">
+      <c r="B3" s="303" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="302"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="302"/>
-      <c r="H3" s="302"/>
-      <c r="I3" s="302"/>
-      <c r="J3" s="302"/>
-      <c r="K3" s="302"/>
-      <c r="L3" s="302"/>
-      <c r="M3" s="302"/>
-      <c r="N3" s="303"/>
-      <c r="P3" s="298" t="s">
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="304"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="305"/>
+      <c r="P3" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="299"/>
-      <c r="R3" s="299"/>
-      <c r="S3" s="299"/>
-      <c r="T3" s="299"/>
-      <c r="U3" s="299"/>
-      <c r="V3" s="299"/>
-      <c r="W3" s="299"/>
-      <c r="X3" s="319"/>
-      <c r="Y3" s="319"/>
-      <c r="Z3" s="319"/>
-      <c r="AA3" s="319"/>
-      <c r="AB3" s="320"/>
+      <c r="Q3" s="301"/>
+      <c r="R3" s="301"/>
+      <c r="S3" s="301"/>
+      <c r="T3" s="301"/>
+      <c r="U3" s="301"/>
+      <c r="V3" s="301"/>
+      <c r="W3" s="301"/>
+      <c r="X3" s="321"/>
+      <c r="Y3" s="321"/>
+      <c r="Z3" s="321"/>
+      <c r="AA3" s="321"/>
+      <c r="AB3" s="322"/>
       <c r="AC3" s="176"/>
-      <c r="AD3" s="298" t="s">
+      <c r="AD3" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="299"/>
-      <c r="AF3" s="299"/>
-      <c r="AG3" s="299"/>
-      <c r="AH3" s="299"/>
-      <c r="AI3" s="299"/>
-      <c r="AJ3" s="299"/>
-      <c r="AK3" s="299"/>
-      <c r="AL3" s="299"/>
-      <c r="AM3" s="299"/>
-      <c r="AN3" s="299"/>
-      <c r="AO3" s="299"/>
-      <c r="AP3" s="300"/>
-      <c r="AR3" s="321" t="s">
+      <c r="AE3" s="301"/>
+      <c r="AF3" s="301"/>
+      <c r="AG3" s="301"/>
+      <c r="AH3" s="301"/>
+      <c r="AI3" s="301"/>
+      <c r="AJ3" s="301"/>
+      <c r="AK3" s="301"/>
+      <c r="AL3" s="301"/>
+      <c r="AM3" s="301"/>
+      <c r="AN3" s="301"/>
+      <c r="AO3" s="301"/>
+      <c r="AP3" s="302"/>
+      <c r="AR3" s="323" t="s">
         <v>81</v>
       </c>
-      <c r="AS3" s="322"/>
-      <c r="AT3" s="322"/>
-      <c r="AU3" s="322"/>
-      <c r="AV3" s="322"/>
-      <c r="AW3" s="322"/>
-      <c r="AX3" s="322"/>
-      <c r="AY3" s="322"/>
-      <c r="AZ3" s="322"/>
-      <c r="BA3" s="322"/>
-      <c r="BB3" s="322"/>
-      <c r="BC3" s="322"/>
-      <c r="BD3" s="323"/>
+      <c r="AS3" s="324"/>
+      <c r="AT3" s="324"/>
+      <c r="AU3" s="324"/>
+      <c r="AV3" s="324"/>
+      <c r="AW3" s="324"/>
+      <c r="AX3" s="324"/>
+      <c r="AY3" s="324"/>
+      <c r="AZ3" s="324"/>
+      <c r="BA3" s="324"/>
+      <c r="BB3" s="324"/>
+      <c r="BC3" s="324"/>
+      <c r="BD3" s="325"/>
       <c r="BE3" s="176"/>
-      <c r="BF3" s="298" t="s">
+      <c r="BF3" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="BG3" s="299"/>
-      <c r="BH3" s="299"/>
-      <c r="BI3" s="299"/>
-      <c r="BJ3" s="299"/>
-      <c r="BK3" s="299"/>
-      <c r="BL3" s="299"/>
-      <c r="BM3" s="299"/>
-      <c r="BN3" s="299"/>
-      <c r="BO3" s="299"/>
-      <c r="BP3" s="299"/>
-      <c r="BQ3" s="299"/>
-      <c r="BR3" s="300"/>
-      <c r="BT3" s="298" t="s">
+      <c r="BG3" s="301"/>
+      <c r="BH3" s="301"/>
+      <c r="BI3" s="301"/>
+      <c r="BJ3" s="301"/>
+      <c r="BK3" s="301"/>
+      <c r="BL3" s="301"/>
+      <c r="BM3" s="301"/>
+      <c r="BN3" s="301"/>
+      <c r="BO3" s="301"/>
+      <c r="BP3" s="301"/>
+      <c r="BQ3" s="301"/>
+      <c r="BR3" s="302"/>
+      <c r="BT3" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="BU3" s="299"/>
-      <c r="BV3" s="299"/>
-      <c r="BW3" s="299"/>
-      <c r="BX3" s="299"/>
-      <c r="BY3" s="299"/>
-      <c r="BZ3" s="299"/>
-      <c r="CA3" s="299"/>
-      <c r="CB3" s="299"/>
-      <c r="CC3" s="299"/>
-      <c r="CD3" s="299"/>
-      <c r="CE3" s="299"/>
-      <c r="CF3" s="300"/>
+      <c r="BU3" s="301"/>
+      <c r="BV3" s="301"/>
+      <c r="BW3" s="301"/>
+      <c r="BX3" s="301"/>
+      <c r="BY3" s="301"/>
+      <c r="BZ3" s="301"/>
+      <c r="CA3" s="301"/>
+      <c r="CB3" s="301"/>
+      <c r="CC3" s="301"/>
+      <c r="CD3" s="301"/>
+      <c r="CE3" s="301"/>
+      <c r="CF3" s="302"/>
       <c r="CG3" s="176"/>
-      <c r="CH3" s="298" t="s">
+      <c r="CH3" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="CI3" s="299"/>
-      <c r="CJ3" s="299"/>
-      <c r="CK3" s="299"/>
-      <c r="CL3" s="299"/>
-      <c r="CM3" s="299"/>
-      <c r="CN3" s="299"/>
-      <c r="CO3" s="299"/>
-      <c r="CP3" s="299"/>
-      <c r="CQ3" s="299"/>
-      <c r="CR3" s="299"/>
-      <c r="CS3" s="299"/>
-      <c r="CT3" s="300"/>
+      <c r="CI3" s="301"/>
+      <c r="CJ3" s="301"/>
+      <c r="CK3" s="301"/>
+      <c r="CL3" s="301"/>
+      <c r="CM3" s="301"/>
+      <c r="CN3" s="301"/>
+      <c r="CO3" s="301"/>
+      <c r="CP3" s="301"/>
+      <c r="CQ3" s="301"/>
+      <c r="CR3" s="301"/>
+      <c r="CS3" s="301"/>
+      <c r="CT3" s="302"/>
       <c r="CU3" s="175"/>
-      <c r="CV3" s="298" t="s">
+      <c r="CV3" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="CW3" s="299"/>
-      <c r="CX3" s="299"/>
-      <c r="CY3" s="299"/>
-      <c r="CZ3" s="299"/>
-      <c r="DA3" s="299"/>
-      <c r="DB3" s="299"/>
-      <c r="DC3" s="299"/>
-      <c r="DD3" s="299"/>
-      <c r="DE3" s="299"/>
-      <c r="DF3" s="299"/>
-      <c r="DG3" s="299"/>
-      <c r="DH3" s="300"/>
-      <c r="DJ3" s="298" t="s">
+      <c r="CW3" s="301"/>
+      <c r="CX3" s="301"/>
+      <c r="CY3" s="301"/>
+      <c r="CZ3" s="301"/>
+      <c r="DA3" s="301"/>
+      <c r="DB3" s="301"/>
+      <c r="DC3" s="301"/>
+      <c r="DD3" s="301"/>
+      <c r="DE3" s="301"/>
+      <c r="DF3" s="301"/>
+      <c r="DG3" s="301"/>
+      <c r="DH3" s="302"/>
+      <c r="DJ3" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="DK3" s="299"/>
-      <c r="DL3" s="299"/>
-      <c r="DM3" s="299"/>
-      <c r="DN3" s="299"/>
-      <c r="DO3" s="299"/>
-      <c r="DP3" s="299"/>
-      <c r="DQ3" s="299"/>
-      <c r="DR3" s="299"/>
-      <c r="DS3" s="299"/>
-      <c r="DT3" s="299"/>
-      <c r="DU3" s="299"/>
-      <c r="DV3" s="300"/>
+      <c r="DK3" s="301"/>
+      <c r="DL3" s="301"/>
+      <c r="DM3" s="301"/>
+      <c r="DN3" s="301"/>
+      <c r="DO3" s="301"/>
+      <c r="DP3" s="301"/>
+      <c r="DQ3" s="301"/>
+      <c r="DR3" s="301"/>
+      <c r="DS3" s="301"/>
+      <c r="DT3" s="301"/>
+      <c r="DU3" s="301"/>
+      <c r="DV3" s="302"/>
     </row>
     <row r="4" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="177">
@@ -19700,13 +22486,13 @@
       <c r="U4" s="143"/>
       <c r="V4" s="187"/>
       <c r="W4" s="188"/>
-      <c r="X4" s="329" t="s">
+      <c r="X4" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="319"/>
-      <c r="Z4" s="319"/>
-      <c r="AA4" s="319"/>
-      <c r="AB4" s="320"/>
+      <c r="Y4" s="321"/>
+      <c r="Z4" s="321"/>
+      <c r="AA4" s="321"/>
+      <c r="AB4" s="322"/>
       <c r="AC4" s="176"/>
       <c r="AD4" s="185">
         <v>1</v>
@@ -19724,13 +22510,13 @@
       <c r="AI4" s="143"/>
       <c r="AJ4" s="187"/>
       <c r="AK4" s="188"/>
-      <c r="AL4" s="329" t="s">
+      <c r="AL4" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="AM4" s="319"/>
-      <c r="AN4" s="319"/>
-      <c r="AO4" s="319"/>
-      <c r="AP4" s="320"/>
+      <c r="AM4" s="321"/>
+      <c r="AN4" s="321"/>
+      <c r="AO4" s="321"/>
+      <c r="AP4" s="322"/>
       <c r="AR4" s="177">
         <v>1</v>
       </c>
@@ -19747,13 +22533,13 @@
       <c r="AW4" s="145"/>
       <c r="AX4" s="183"/>
       <c r="AY4" s="189"/>
-      <c r="AZ4" s="307" t="s">
+      <c r="AZ4" s="309" t="s">
         <v>81</v>
       </c>
-      <c r="BA4" s="308"/>
-      <c r="BB4" s="308"/>
-      <c r="BC4" s="308"/>
-      <c r="BD4" s="309"/>
+      <c r="BA4" s="310"/>
+      <c r="BB4" s="310"/>
+      <c r="BC4" s="310"/>
+      <c r="BD4" s="311"/>
       <c r="BE4" s="176"/>
       <c r="BF4" s="185">
         <v>1</v>
@@ -19771,13 +22557,13 @@
       <c r="BK4" s="143"/>
       <c r="BL4" s="187"/>
       <c r="BM4" s="188"/>
-      <c r="BN4" s="329" t="s">
+      <c r="BN4" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="BO4" s="319"/>
-      <c r="BP4" s="319"/>
-      <c r="BQ4" s="319"/>
-      <c r="BR4" s="320"/>
+      <c r="BO4" s="321"/>
+      <c r="BP4" s="321"/>
+      <c r="BQ4" s="321"/>
+      <c r="BR4" s="322"/>
       <c r="BT4" s="185">
         <v>1</v>
       </c>
@@ -19794,13 +22580,13 @@
       <c r="BY4" s="143"/>
       <c r="BZ4" s="187"/>
       <c r="CA4" s="188"/>
-      <c r="CB4" s="329" t="s">
+      <c r="CB4" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="CC4" s="319"/>
-      <c r="CD4" s="319"/>
-      <c r="CE4" s="319"/>
-      <c r="CF4" s="320"/>
+      <c r="CC4" s="321"/>
+      <c r="CD4" s="321"/>
+      <c r="CE4" s="321"/>
+      <c r="CF4" s="322"/>
       <c r="CG4" s="176"/>
       <c r="CH4" s="185">
         <v>1</v>
@@ -19818,13 +22604,13 @@
       <c r="CM4" s="143"/>
       <c r="CN4" s="187"/>
       <c r="CO4" s="188"/>
-      <c r="CP4" s="329" t="s">
+      <c r="CP4" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="CQ4" s="319"/>
-      <c r="CR4" s="319"/>
-      <c r="CS4" s="319"/>
-      <c r="CT4" s="320"/>
+      <c r="CQ4" s="321"/>
+      <c r="CR4" s="321"/>
+      <c r="CS4" s="321"/>
+      <c r="CT4" s="322"/>
       <c r="CU4" s="175"/>
       <c r="CV4" s="185">
         <v>1</v>
@@ -19842,13 +22628,13 @@
       <c r="DA4" s="143"/>
       <c r="DB4" s="187"/>
       <c r="DC4" s="188"/>
-      <c r="DD4" s="329" t="s">
+      <c r="DD4" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="DE4" s="319"/>
-      <c r="DF4" s="319"/>
-      <c r="DG4" s="319"/>
-      <c r="DH4" s="320"/>
+      <c r="DE4" s="321"/>
+      <c r="DF4" s="321"/>
+      <c r="DG4" s="321"/>
+      <c r="DH4" s="322"/>
       <c r="DJ4" s="185">
         <v>1</v>
       </c>
@@ -19865,13 +22651,13 @@
       <c r="DO4" s="143"/>
       <c r="DP4" s="187"/>
       <c r="DQ4" s="188"/>
-      <c r="DR4" s="329" t="s">
+      <c r="DR4" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="DS4" s="319"/>
-      <c r="DT4" s="319"/>
-      <c r="DU4" s="319"/>
-      <c r="DV4" s="320"/>
+      <c r="DS4" s="321"/>
+      <c r="DT4" s="321"/>
+      <c r="DU4" s="321"/>
+      <c r="DV4" s="322"/>
     </row>
     <row r="5" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="190">
@@ -19915,13 +22701,13 @@
       <c r="U5" s="195"/>
       <c r="V5" s="195"/>
       <c r="W5" s="197"/>
-      <c r="X5" s="330" t="s">
+      <c r="X5" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="Y5" s="331"/>
-      <c r="Z5" s="331"/>
-      <c r="AA5" s="331"/>
-      <c r="AB5" s="332"/>
+      <c r="Y5" s="333"/>
+      <c r="Z5" s="333"/>
+      <c r="AA5" s="333"/>
+      <c r="AB5" s="334"/>
       <c r="AC5" s="176"/>
       <c r="AD5" s="190">
         <v>2</v>
@@ -19941,13 +22727,13 @@
       <c r="AI5" s="195"/>
       <c r="AJ5" s="195"/>
       <c r="AK5" s="195"/>
-      <c r="AL5" s="330" t="s">
+      <c r="AL5" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="AM5" s="331"/>
-      <c r="AN5" s="331"/>
-      <c r="AO5" s="331"/>
-      <c r="AP5" s="332"/>
+      <c r="AM5" s="333"/>
+      <c r="AN5" s="333"/>
+      <c r="AO5" s="333"/>
+      <c r="AP5" s="334"/>
       <c r="AR5" s="190">
         <v>2</v>
       </c>
@@ -19966,13 +22752,13 @@
       <c r="AW5" s="143"/>
       <c r="AX5" s="195"/>
       <c r="AY5" s="197"/>
-      <c r="AZ5" s="310" t="s">
+      <c r="AZ5" s="312" t="s">
         <v>88</v>
       </c>
-      <c r="BA5" s="311"/>
-      <c r="BB5" s="311"/>
-      <c r="BC5" s="311"/>
-      <c r="BD5" s="312"/>
+      <c r="BA5" s="313"/>
+      <c r="BB5" s="313"/>
+      <c r="BC5" s="313"/>
+      <c r="BD5" s="314"/>
       <c r="BE5" s="176"/>
       <c r="BF5" s="190">
         <v>2</v>
@@ -19992,13 +22778,13 @@
       <c r="BK5" s="195"/>
       <c r="BL5" s="195"/>
       <c r="BM5" s="195"/>
-      <c r="BN5" s="330" t="s">
+      <c r="BN5" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="BO5" s="331"/>
-      <c r="BP5" s="331"/>
-      <c r="BQ5" s="331"/>
-      <c r="BR5" s="332"/>
+      <c r="BO5" s="333"/>
+      <c r="BP5" s="333"/>
+      <c r="BQ5" s="333"/>
+      <c r="BR5" s="334"/>
       <c r="BT5" s="190">
         <v>2</v>
       </c>
@@ -20017,13 +22803,13 @@
       <c r="BY5" s="195"/>
       <c r="BZ5" s="195"/>
       <c r="CA5" s="195"/>
-      <c r="CB5" s="330" t="s">
+      <c r="CB5" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="CC5" s="331"/>
-      <c r="CD5" s="331"/>
-      <c r="CE5" s="331"/>
-      <c r="CF5" s="332"/>
+      <c r="CC5" s="333"/>
+      <c r="CD5" s="333"/>
+      <c r="CE5" s="333"/>
+      <c r="CF5" s="334"/>
       <c r="CG5" s="176"/>
       <c r="CH5" s="190">
         <v>2</v>
@@ -20043,13 +22829,13 @@
       <c r="CM5" s="195"/>
       <c r="CN5" s="195"/>
       <c r="CO5" s="195"/>
-      <c r="CP5" s="330" t="s">
+      <c r="CP5" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="CQ5" s="331"/>
-      <c r="CR5" s="331"/>
-      <c r="CS5" s="331"/>
-      <c r="CT5" s="332"/>
+      <c r="CQ5" s="333"/>
+      <c r="CR5" s="333"/>
+      <c r="CS5" s="333"/>
+      <c r="CT5" s="334"/>
       <c r="CU5" s="175"/>
       <c r="CV5" s="190">
         <v>2</v>
@@ -20069,13 +22855,13 @@
       <c r="DA5" s="195"/>
       <c r="DB5" s="195"/>
       <c r="DC5" s="195"/>
-      <c r="DD5" s="330" t="s">
+      <c r="DD5" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="DE5" s="331"/>
-      <c r="DF5" s="331"/>
-      <c r="DG5" s="331"/>
-      <c r="DH5" s="332"/>
+      <c r="DE5" s="333"/>
+      <c r="DF5" s="333"/>
+      <c r="DG5" s="333"/>
+      <c r="DH5" s="334"/>
       <c r="DJ5" s="190">
         <v>2</v>
       </c>
@@ -20094,13 +22880,13 @@
       <c r="DO5" s="195"/>
       <c r="DP5" s="195"/>
       <c r="DQ5" s="195"/>
-      <c r="DR5" s="330" t="s">
+      <c r="DR5" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="DS5" s="331"/>
-      <c r="DT5" s="331"/>
-      <c r="DU5" s="331"/>
-      <c r="DV5" s="332"/>
+      <c r="DS5" s="333"/>
+      <c r="DT5" s="333"/>
+      <c r="DU5" s="333"/>
+      <c r="DV5" s="334"/>
     </row>
     <row r="6" spans="2:126" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="190">
@@ -20148,13 +22934,13 @@
       </c>
       <c r="V6" s="195"/>
       <c r="W6" s="197"/>
-      <c r="X6" s="333" t="s">
+      <c r="X6" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="Y6" s="334"/>
-      <c r="Z6" s="334"/>
-      <c r="AA6" s="334"/>
-      <c r="AB6" s="335"/>
+      <c r="Y6" s="336"/>
+      <c r="Z6" s="336"/>
+      <c r="AA6" s="336"/>
+      <c r="AB6" s="337"/>
       <c r="AC6" s="176"/>
       <c r="AD6" s="190">
         <v>3</v>
@@ -20176,13 +22962,13 @@
       </c>
       <c r="AJ6" s="195"/>
       <c r="AK6" s="195"/>
-      <c r="AL6" s="333" t="s">
+      <c r="AL6" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="AM6" s="334"/>
-      <c r="AN6" s="334"/>
-      <c r="AO6" s="334"/>
-      <c r="AP6" s="335"/>
+      <c r="AM6" s="336"/>
+      <c r="AN6" s="336"/>
+      <c r="AO6" s="336"/>
+      <c r="AP6" s="337"/>
       <c r="AR6" s="190">
         <v>3</v>
       </c>
@@ -20203,13 +22989,13 @@
       </c>
       <c r="AX6" s="195"/>
       <c r="AY6" s="195"/>
-      <c r="AZ6" s="313" t="s">
+      <c r="AZ6" s="315" t="s">
         <v>82</v>
       </c>
-      <c r="BA6" s="314"/>
-      <c r="BB6" s="314"/>
-      <c r="BC6" s="314"/>
-      <c r="BD6" s="315"/>
+      <c r="BA6" s="316"/>
+      <c r="BB6" s="316"/>
+      <c r="BC6" s="316"/>
+      <c r="BD6" s="317"/>
       <c r="BE6" s="176"/>
       <c r="BF6" s="190">
         <v>3</v>
@@ -20231,13 +23017,13 @@
       </c>
       <c r="BL6" s="195"/>
       <c r="BM6" s="195"/>
-      <c r="BN6" s="333" t="s">
+      <c r="BN6" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="BO6" s="334"/>
-      <c r="BP6" s="334"/>
-      <c r="BQ6" s="334"/>
-      <c r="BR6" s="335"/>
+      <c r="BO6" s="336"/>
+      <c r="BP6" s="336"/>
+      <c r="BQ6" s="336"/>
+      <c r="BR6" s="337"/>
       <c r="BT6" s="190">
         <v>3</v>
       </c>
@@ -20258,13 +23044,13 @@
       </c>
       <c r="BZ6" s="195"/>
       <c r="CA6" s="195"/>
-      <c r="CB6" s="333" t="s">
+      <c r="CB6" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="CC6" s="334"/>
-      <c r="CD6" s="334"/>
-      <c r="CE6" s="334"/>
-      <c r="CF6" s="335"/>
+      <c r="CC6" s="336"/>
+      <c r="CD6" s="336"/>
+      <c r="CE6" s="336"/>
+      <c r="CF6" s="337"/>
       <c r="CG6" s="176"/>
       <c r="CH6" s="190">
         <v>3</v>
@@ -20286,13 +23072,13 @@
       </c>
       <c r="CN6" s="195"/>
       <c r="CO6" s="195"/>
-      <c r="CP6" s="333" t="s">
+      <c r="CP6" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="CQ6" s="334"/>
-      <c r="CR6" s="334"/>
-      <c r="CS6" s="334"/>
-      <c r="CT6" s="335"/>
+      <c r="CQ6" s="336"/>
+      <c r="CR6" s="336"/>
+      <c r="CS6" s="336"/>
+      <c r="CT6" s="337"/>
       <c r="CU6" s="175"/>
       <c r="CV6" s="190">
         <v>3</v>
@@ -20314,13 +23100,13 @@
       </c>
       <c r="DB6" s="195"/>
       <c r="DC6" s="195"/>
-      <c r="DD6" s="333" t="s">
+      <c r="DD6" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="DE6" s="334"/>
-      <c r="DF6" s="334"/>
-      <c r="DG6" s="334"/>
-      <c r="DH6" s="335"/>
+      <c r="DE6" s="336"/>
+      <c r="DF6" s="336"/>
+      <c r="DG6" s="336"/>
+      <c r="DH6" s="337"/>
       <c r="DJ6" s="190">
         <v>3</v>
       </c>
@@ -20341,13 +23127,13 @@
       </c>
       <c r="DP6" s="195"/>
       <c r="DQ6" s="195"/>
-      <c r="DR6" s="333" t="s">
+      <c r="DR6" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="DS6" s="334"/>
-      <c r="DT6" s="334"/>
-      <c r="DU6" s="334"/>
-      <c r="DV6" s="335"/>
+      <c r="DS6" s="336"/>
+      <c r="DT6" s="336"/>
+      <c r="DU6" s="336"/>
+      <c r="DV6" s="337"/>
     </row>
     <row r="7" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="158">
@@ -20385,13 +23171,13 @@
       <c r="U7" s="206"/>
       <c r="V7" s="206"/>
       <c r="W7" s="207"/>
-      <c r="X7" s="336" t="s">
+      <c r="X7" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="Y7" s="337"/>
-      <c r="Z7" s="337"/>
-      <c r="AA7" s="337"/>
-      <c r="AB7" s="338"/>
+      <c r="Y7" s="339"/>
+      <c r="Z7" s="339"/>
+      <c r="AA7" s="339"/>
+      <c r="AB7" s="340"/>
       <c r="AC7" s="176"/>
       <c r="AD7" s="190">
         <v>4</v>
@@ -20415,13 +23201,13 @@
         <v>27</v>
       </c>
       <c r="AK7" s="206"/>
-      <c r="AL7" s="336" t="s">
+      <c r="AL7" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="AM7" s="337"/>
-      <c r="AN7" s="337"/>
-      <c r="AO7" s="337"/>
-      <c r="AP7" s="338"/>
+      <c r="AM7" s="339"/>
+      <c r="AN7" s="339"/>
+      <c r="AO7" s="339"/>
+      <c r="AP7" s="340"/>
       <c r="AR7" s="205"/>
       <c r="AS7" s="206"/>
       <c r="AT7" s="206"/>
@@ -20430,13 +23216,13 @@
       <c r="AW7" s="206"/>
       <c r="AX7" s="206"/>
       <c r="AY7" s="206"/>
-      <c r="AZ7" s="316" t="s">
+      <c r="AZ7" s="318" t="s">
         <v>89</v>
       </c>
-      <c r="BA7" s="317"/>
-      <c r="BB7" s="317"/>
-      <c r="BC7" s="317"/>
-      <c r="BD7" s="318"/>
+      <c r="BA7" s="319"/>
+      <c r="BB7" s="319"/>
+      <c r="BC7" s="319"/>
+      <c r="BD7" s="320"/>
       <c r="BE7" s="176"/>
       <c r="BF7" s="190">
         <v>4</v>
@@ -20460,13 +23246,13 @@
         <v>27</v>
       </c>
       <c r="BM7" s="206"/>
-      <c r="BN7" s="336" t="s">
+      <c r="BN7" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="BO7" s="337"/>
-      <c r="BP7" s="337"/>
-      <c r="BQ7" s="337"/>
-      <c r="BR7" s="338"/>
+      <c r="BO7" s="339"/>
+      <c r="BP7" s="339"/>
+      <c r="BQ7" s="339"/>
+      <c r="BR7" s="340"/>
       <c r="BT7" s="205"/>
       <c r="BU7" s="206"/>
       <c r="BV7" s="206"/>
@@ -20475,13 +23261,13 @@
       <c r="BY7" s="206"/>
       <c r="BZ7" s="206"/>
       <c r="CA7" s="206"/>
-      <c r="CB7" s="336" t="s">
+      <c r="CB7" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="CC7" s="337"/>
-      <c r="CD7" s="337"/>
-      <c r="CE7" s="337"/>
-      <c r="CF7" s="338"/>
+      <c r="CC7" s="339"/>
+      <c r="CD7" s="339"/>
+      <c r="CE7" s="339"/>
+      <c r="CF7" s="340"/>
       <c r="CG7" s="176"/>
       <c r="CH7" s="190">
         <v>4</v>
@@ -20505,13 +23291,13 @@
         <v>27</v>
       </c>
       <c r="CO7" s="206"/>
-      <c r="CP7" s="336" t="s">
+      <c r="CP7" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="CQ7" s="337"/>
-      <c r="CR7" s="337"/>
-      <c r="CS7" s="337"/>
-      <c r="CT7" s="338"/>
+      <c r="CQ7" s="339"/>
+      <c r="CR7" s="339"/>
+      <c r="CS7" s="339"/>
+      <c r="CT7" s="340"/>
       <c r="CU7" s="175"/>
       <c r="CV7" s="205"/>
       <c r="CW7" s="206"/>
@@ -20521,13 +23307,13 @@
       <c r="DA7" s="206"/>
       <c r="DB7" s="206"/>
       <c r="DC7" s="206"/>
-      <c r="DD7" s="336" t="s">
+      <c r="DD7" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="DE7" s="337"/>
-      <c r="DF7" s="337"/>
-      <c r="DG7" s="337"/>
-      <c r="DH7" s="338"/>
+      <c r="DE7" s="339"/>
+      <c r="DF7" s="339"/>
+      <c r="DG7" s="339"/>
+      <c r="DH7" s="340"/>
       <c r="DJ7" s="190">
         <v>4</v>
       </c>
@@ -20550,13 +23336,13 @@
         <v>27</v>
       </c>
       <c r="DQ7" s="206"/>
-      <c r="DR7" s="336" t="s">
+      <c r="DR7" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="DS7" s="337"/>
-      <c r="DT7" s="337"/>
-      <c r="DU7" s="337"/>
-      <c r="DV7" s="338"/>
+      <c r="DS7" s="339"/>
+      <c r="DT7" s="339"/>
+      <c r="DU7" s="339"/>
+      <c r="DV7" s="340"/>
     </row>
     <row r="8" spans="2:126" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="208" t="s">
@@ -23331,145 +26117,145 @@
       <c r="DV23" s="241"/>
     </row>
     <row r="24" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="304" t="s">
+      <c r="B24" s="306" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="305"/>
-      <c r="D24" s="305"/>
-      <c r="E24" s="305"/>
-      <c r="F24" s="305"/>
-      <c r="G24" s="305"/>
-      <c r="H24" s="305"/>
-      <c r="I24" s="305"/>
-      <c r="J24" s="305"/>
-      <c r="K24" s="305"/>
-      <c r="L24" s="305"/>
-      <c r="M24" s="305"/>
-      <c r="N24" s="306"/>
-      <c r="P24" s="324" t="s">
+      <c r="C24" s="307"/>
+      <c r="D24" s="307"/>
+      <c r="E24" s="307"/>
+      <c r="F24" s="307"/>
+      <c r="G24" s="307"/>
+      <c r="H24" s="307"/>
+      <c r="I24" s="307"/>
+      <c r="J24" s="307"/>
+      <c r="K24" s="307"/>
+      <c r="L24" s="307"/>
+      <c r="M24" s="307"/>
+      <c r="N24" s="308"/>
+      <c r="P24" s="326" t="s">
         <v>38</v>
       </c>
-      <c r="Q24" s="325"/>
-      <c r="R24" s="325"/>
-      <c r="S24" s="325"/>
-      <c r="T24" s="325"/>
-      <c r="U24" s="325"/>
-      <c r="V24" s="325"/>
-      <c r="W24" s="325"/>
-      <c r="X24" s="325"/>
-      <c r="Y24" s="325"/>
-      <c r="Z24" s="325"/>
-      <c r="AA24" s="325"/>
-      <c r="AB24" s="326"/>
+      <c r="Q24" s="327"/>
+      <c r="R24" s="327"/>
+      <c r="S24" s="327"/>
+      <c r="T24" s="327"/>
+      <c r="U24" s="327"/>
+      <c r="V24" s="327"/>
+      <c r="W24" s="327"/>
+      <c r="X24" s="327"/>
+      <c r="Y24" s="327"/>
+      <c r="Z24" s="327"/>
+      <c r="AA24" s="327"/>
+      <c r="AB24" s="328"/>
       <c r="AC24" s="176"/>
-      <c r="AD24" s="324" t="s">
+      <c r="AD24" s="326" t="s">
         <v>38</v>
       </c>
-      <c r="AE24" s="325"/>
-      <c r="AF24" s="325"/>
-      <c r="AG24" s="325"/>
-      <c r="AH24" s="325"/>
-      <c r="AI24" s="325"/>
-      <c r="AJ24" s="325"/>
-      <c r="AK24" s="325"/>
-      <c r="AL24" s="325"/>
-      <c r="AM24" s="325"/>
-      <c r="AN24" s="325"/>
-      <c r="AO24" s="325"/>
-      <c r="AP24" s="326"/>
-      <c r="AR24" s="327" t="s">
+      <c r="AE24" s="327"/>
+      <c r="AF24" s="327"/>
+      <c r="AG24" s="327"/>
+      <c r="AH24" s="327"/>
+      <c r="AI24" s="327"/>
+      <c r="AJ24" s="327"/>
+      <c r="AK24" s="327"/>
+      <c r="AL24" s="327"/>
+      <c r="AM24" s="327"/>
+      <c r="AN24" s="327"/>
+      <c r="AO24" s="327"/>
+      <c r="AP24" s="328"/>
+      <c r="AR24" s="329" t="s">
         <v>82</v>
       </c>
-      <c r="AS24" s="328"/>
-      <c r="AT24" s="328"/>
-      <c r="AU24" s="328"/>
-      <c r="AV24" s="328"/>
-      <c r="AW24" s="328"/>
-      <c r="AX24" s="328"/>
-      <c r="AY24" s="328"/>
-      <c r="AZ24" s="314"/>
-      <c r="BA24" s="314"/>
-      <c r="BB24" s="314"/>
-      <c r="BC24" s="314"/>
-      <c r="BD24" s="315"/>
+      <c r="AS24" s="330"/>
+      <c r="AT24" s="330"/>
+      <c r="AU24" s="330"/>
+      <c r="AV24" s="330"/>
+      <c r="AW24" s="330"/>
+      <c r="AX24" s="330"/>
+      <c r="AY24" s="330"/>
+      <c r="AZ24" s="316"/>
+      <c r="BA24" s="316"/>
+      <c r="BB24" s="316"/>
+      <c r="BC24" s="316"/>
+      <c r="BD24" s="317"/>
       <c r="BE24" s="176"/>
-      <c r="BF24" s="324" t="s">
+      <c r="BF24" s="326" t="s">
         <v>38</v>
       </c>
-      <c r="BG24" s="325"/>
-      <c r="BH24" s="325"/>
-      <c r="BI24" s="325"/>
-      <c r="BJ24" s="325"/>
-      <c r="BK24" s="325"/>
-      <c r="BL24" s="325"/>
-      <c r="BM24" s="325"/>
-      <c r="BN24" s="325"/>
-      <c r="BO24" s="325"/>
-      <c r="BP24" s="325"/>
-      <c r="BQ24" s="325"/>
-      <c r="BR24" s="326"/>
-      <c r="BT24" s="324" t="s">
+      <c r="BG24" s="327"/>
+      <c r="BH24" s="327"/>
+      <c r="BI24" s="327"/>
+      <c r="BJ24" s="327"/>
+      <c r="BK24" s="327"/>
+      <c r="BL24" s="327"/>
+      <c r="BM24" s="327"/>
+      <c r="BN24" s="327"/>
+      <c r="BO24" s="327"/>
+      <c r="BP24" s="327"/>
+      <c r="BQ24" s="327"/>
+      <c r="BR24" s="328"/>
+      <c r="BT24" s="326" t="s">
         <v>38</v>
       </c>
-      <c r="BU24" s="325"/>
-      <c r="BV24" s="325"/>
-      <c r="BW24" s="325"/>
-      <c r="BX24" s="325"/>
-      <c r="BY24" s="325"/>
-      <c r="BZ24" s="325"/>
-      <c r="CA24" s="325"/>
-      <c r="CB24" s="325"/>
-      <c r="CC24" s="325"/>
-      <c r="CD24" s="325"/>
-      <c r="CE24" s="325"/>
-      <c r="CF24" s="326"/>
+      <c r="BU24" s="327"/>
+      <c r="BV24" s="327"/>
+      <c r="BW24" s="327"/>
+      <c r="BX24" s="327"/>
+      <c r="BY24" s="327"/>
+      <c r="BZ24" s="327"/>
+      <c r="CA24" s="327"/>
+      <c r="CB24" s="327"/>
+      <c r="CC24" s="327"/>
+      <c r="CD24" s="327"/>
+      <c r="CE24" s="327"/>
+      <c r="CF24" s="328"/>
       <c r="CG24" s="176"/>
-      <c r="CH24" s="324" t="s">
+      <c r="CH24" s="326" t="s">
         <v>38</v>
       </c>
-      <c r="CI24" s="325"/>
-      <c r="CJ24" s="325"/>
-      <c r="CK24" s="325"/>
-      <c r="CL24" s="325"/>
-      <c r="CM24" s="325"/>
-      <c r="CN24" s="325"/>
-      <c r="CO24" s="325"/>
-      <c r="CP24" s="325"/>
-      <c r="CQ24" s="325"/>
-      <c r="CR24" s="325"/>
-      <c r="CS24" s="325"/>
-      <c r="CT24" s="326"/>
+      <c r="CI24" s="327"/>
+      <c r="CJ24" s="327"/>
+      <c r="CK24" s="327"/>
+      <c r="CL24" s="327"/>
+      <c r="CM24" s="327"/>
+      <c r="CN24" s="327"/>
+      <c r="CO24" s="327"/>
+      <c r="CP24" s="327"/>
+      <c r="CQ24" s="327"/>
+      <c r="CR24" s="327"/>
+      <c r="CS24" s="327"/>
+      <c r="CT24" s="328"/>
       <c r="CU24" s="175"/>
-      <c r="CV24" s="324" t="s">
+      <c r="CV24" s="326" t="s">
         <v>38</v>
       </c>
-      <c r="CW24" s="325"/>
-      <c r="CX24" s="325"/>
-      <c r="CY24" s="325"/>
-      <c r="CZ24" s="325"/>
-      <c r="DA24" s="325"/>
-      <c r="DB24" s="325"/>
-      <c r="DC24" s="325"/>
-      <c r="DD24" s="325"/>
-      <c r="DE24" s="325"/>
-      <c r="DF24" s="325"/>
-      <c r="DG24" s="325"/>
-      <c r="DH24" s="326"/>
-      <c r="DJ24" s="324" t="s">
+      <c r="CW24" s="327"/>
+      <c r="CX24" s="327"/>
+      <c r="CY24" s="327"/>
+      <c r="CZ24" s="327"/>
+      <c r="DA24" s="327"/>
+      <c r="DB24" s="327"/>
+      <c r="DC24" s="327"/>
+      <c r="DD24" s="327"/>
+      <c r="DE24" s="327"/>
+      <c r="DF24" s="327"/>
+      <c r="DG24" s="327"/>
+      <c r="DH24" s="328"/>
+      <c r="DJ24" s="326" t="s">
         <v>38</v>
       </c>
-      <c r="DK24" s="325"/>
-      <c r="DL24" s="325"/>
-      <c r="DM24" s="325"/>
-      <c r="DN24" s="325"/>
-      <c r="DO24" s="325"/>
-      <c r="DP24" s="325"/>
-      <c r="DQ24" s="325"/>
-      <c r="DR24" s="325"/>
-      <c r="DS24" s="325"/>
-      <c r="DT24" s="325"/>
-      <c r="DU24" s="325"/>
-      <c r="DV24" s="326"/>
+      <c r="DK24" s="327"/>
+      <c r="DL24" s="327"/>
+      <c r="DM24" s="327"/>
+      <c r="DN24" s="327"/>
+      <c r="DO24" s="327"/>
+      <c r="DP24" s="327"/>
+      <c r="DQ24" s="327"/>
+      <c r="DR24" s="327"/>
+      <c r="DS24" s="327"/>
+      <c r="DT24" s="327"/>
+      <c r="DU24" s="327"/>
+      <c r="DV24" s="328"/>
     </row>
     <row r="25" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177">
@@ -23509,13 +26295,13 @@
       <c r="U25" s="143"/>
       <c r="V25" s="187"/>
       <c r="W25" s="188"/>
-      <c r="X25" s="329" t="s">
+      <c r="X25" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="Y25" s="319"/>
-      <c r="Z25" s="319"/>
-      <c r="AA25" s="319"/>
-      <c r="AB25" s="320"/>
+      <c r="Y25" s="321"/>
+      <c r="Z25" s="321"/>
+      <c r="AA25" s="321"/>
+      <c r="AB25" s="322"/>
       <c r="AC25" s="176"/>
       <c r="AD25" s="185">
         <v>1</v>
@@ -23533,13 +26319,13 @@
       <c r="AI25" s="143"/>
       <c r="AJ25" s="187"/>
       <c r="AK25" s="188"/>
-      <c r="AL25" s="329" t="s">
+      <c r="AL25" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="AM25" s="319"/>
-      <c r="AN25" s="319"/>
-      <c r="AO25" s="319"/>
-      <c r="AP25" s="320"/>
+      <c r="AM25" s="321"/>
+      <c r="AN25" s="321"/>
+      <c r="AO25" s="321"/>
+      <c r="AP25" s="322"/>
       <c r="AR25" s="185">
         <v>1</v>
       </c>
@@ -23556,13 +26342,13 @@
       <c r="AW25" s="143"/>
       <c r="AX25" s="187"/>
       <c r="AY25" s="188"/>
-      <c r="AZ25" s="307" t="s">
+      <c r="AZ25" s="309" t="s">
         <v>81</v>
       </c>
-      <c r="BA25" s="308"/>
-      <c r="BB25" s="308"/>
-      <c r="BC25" s="308"/>
-      <c r="BD25" s="309"/>
+      <c r="BA25" s="310"/>
+      <c r="BB25" s="310"/>
+      <c r="BC25" s="310"/>
+      <c r="BD25" s="311"/>
       <c r="BE25" s="176"/>
       <c r="BF25" s="185">
         <v>1</v>
@@ -23580,13 +26366,13 @@
       <c r="BK25" s="143"/>
       <c r="BL25" s="187"/>
       <c r="BM25" s="188"/>
-      <c r="BN25" s="329" t="s">
+      <c r="BN25" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="BO25" s="319"/>
-      <c r="BP25" s="319"/>
-      <c r="BQ25" s="319"/>
-      <c r="BR25" s="320"/>
+      <c r="BO25" s="321"/>
+      <c r="BP25" s="321"/>
+      <c r="BQ25" s="321"/>
+      <c r="BR25" s="322"/>
       <c r="BT25" s="185">
         <v>1</v>
       </c>
@@ -23603,13 +26389,13 @@
       <c r="BY25" s="143"/>
       <c r="BZ25" s="187"/>
       <c r="CA25" s="188"/>
-      <c r="CB25" s="329" t="s">
+      <c r="CB25" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="CC25" s="319"/>
-      <c r="CD25" s="319"/>
-      <c r="CE25" s="319"/>
-      <c r="CF25" s="320"/>
+      <c r="CC25" s="321"/>
+      <c r="CD25" s="321"/>
+      <c r="CE25" s="321"/>
+      <c r="CF25" s="322"/>
       <c r="CG25" s="176"/>
       <c r="CH25" s="185">
         <v>1</v>
@@ -23627,13 +26413,13 @@
       <c r="CM25" s="143"/>
       <c r="CN25" s="187"/>
       <c r="CO25" s="188"/>
-      <c r="CP25" s="329" t="s">
+      <c r="CP25" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="CQ25" s="319"/>
-      <c r="CR25" s="319"/>
-      <c r="CS25" s="319"/>
-      <c r="CT25" s="320"/>
+      <c r="CQ25" s="321"/>
+      <c r="CR25" s="321"/>
+      <c r="CS25" s="321"/>
+      <c r="CT25" s="322"/>
       <c r="CU25" s="175"/>
       <c r="CV25" s="185">
         <v>1</v>
@@ -23651,13 +26437,13 @@
       <c r="DA25" s="143"/>
       <c r="DB25" s="187"/>
       <c r="DC25" s="188"/>
-      <c r="DD25" s="329" t="s">
+      <c r="DD25" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="DE25" s="319"/>
-      <c r="DF25" s="319"/>
-      <c r="DG25" s="319"/>
-      <c r="DH25" s="320"/>
+      <c r="DE25" s="321"/>
+      <c r="DF25" s="321"/>
+      <c r="DG25" s="321"/>
+      <c r="DH25" s="322"/>
       <c r="DJ25" s="185">
         <v>1</v>
       </c>
@@ -23674,13 +26460,13 @@
       <c r="DO25" s="143"/>
       <c r="DP25" s="187"/>
       <c r="DQ25" s="188"/>
-      <c r="DR25" s="329" t="s">
+      <c r="DR25" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="DS25" s="319"/>
-      <c r="DT25" s="319"/>
-      <c r="DU25" s="319"/>
-      <c r="DV25" s="320"/>
+      <c r="DS25" s="321"/>
+      <c r="DT25" s="321"/>
+      <c r="DU25" s="321"/>
+      <c r="DV25" s="322"/>
     </row>
     <row r="26" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="190">
@@ -23724,13 +26510,13 @@
       <c r="U26" s="195"/>
       <c r="V26" s="195"/>
       <c r="W26" s="195"/>
-      <c r="X26" s="330" t="s">
+      <c r="X26" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="Y26" s="331"/>
-      <c r="Z26" s="331"/>
-      <c r="AA26" s="331"/>
-      <c r="AB26" s="332"/>
+      <c r="Y26" s="333"/>
+      <c r="Z26" s="333"/>
+      <c r="AA26" s="333"/>
+      <c r="AB26" s="334"/>
       <c r="AC26" s="176"/>
       <c r="AD26" s="190">
         <v>2</v>
@@ -23750,13 +26536,13 @@
       <c r="AI26" s="195"/>
       <c r="AJ26" s="195"/>
       <c r="AK26" s="195"/>
-      <c r="AL26" s="330" t="s">
+      <c r="AL26" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="AM26" s="331"/>
-      <c r="AN26" s="331"/>
-      <c r="AO26" s="331"/>
-      <c r="AP26" s="332"/>
+      <c r="AM26" s="333"/>
+      <c r="AN26" s="333"/>
+      <c r="AO26" s="333"/>
+      <c r="AP26" s="334"/>
       <c r="AR26" s="190">
         <v>2</v>
       </c>
@@ -23775,13 +26561,13 @@
       <c r="AW26" s="143"/>
       <c r="AX26" s="195"/>
       <c r="AY26" s="197"/>
-      <c r="AZ26" s="310" t="s">
+      <c r="AZ26" s="312" t="s">
         <v>88</v>
       </c>
-      <c r="BA26" s="311"/>
-      <c r="BB26" s="311"/>
-      <c r="BC26" s="311"/>
-      <c r="BD26" s="312"/>
+      <c r="BA26" s="313"/>
+      <c r="BB26" s="313"/>
+      <c r="BC26" s="313"/>
+      <c r="BD26" s="314"/>
       <c r="BE26" s="176"/>
       <c r="BF26" s="190">
         <v>2</v>
@@ -23801,13 +26587,13 @@
       <c r="BK26" s="195"/>
       <c r="BL26" s="195"/>
       <c r="BM26" s="195"/>
-      <c r="BN26" s="330" t="s">
+      <c r="BN26" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="BO26" s="331"/>
-      <c r="BP26" s="331"/>
-      <c r="BQ26" s="331"/>
-      <c r="BR26" s="332"/>
+      <c r="BO26" s="333"/>
+      <c r="BP26" s="333"/>
+      <c r="BQ26" s="333"/>
+      <c r="BR26" s="334"/>
       <c r="BT26" s="190">
         <v>2</v>
       </c>
@@ -23826,13 +26612,13 @@
       <c r="BY26" s="195"/>
       <c r="BZ26" s="195"/>
       <c r="CA26" s="195"/>
-      <c r="CB26" s="330" t="s">
+      <c r="CB26" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="CC26" s="331"/>
-      <c r="CD26" s="331"/>
-      <c r="CE26" s="331"/>
-      <c r="CF26" s="332"/>
+      <c r="CC26" s="333"/>
+      <c r="CD26" s="333"/>
+      <c r="CE26" s="333"/>
+      <c r="CF26" s="334"/>
       <c r="CG26" s="176"/>
       <c r="CH26" s="190">
         <v>2</v>
@@ -23852,13 +26638,13 @@
       <c r="CM26" s="195"/>
       <c r="CN26" s="195"/>
       <c r="CO26" s="195"/>
-      <c r="CP26" s="330" t="s">
+      <c r="CP26" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="CQ26" s="331"/>
-      <c r="CR26" s="331"/>
-      <c r="CS26" s="331"/>
-      <c r="CT26" s="332"/>
+      <c r="CQ26" s="333"/>
+      <c r="CR26" s="333"/>
+      <c r="CS26" s="333"/>
+      <c r="CT26" s="334"/>
       <c r="CU26" s="175"/>
       <c r="CV26" s="190">
         <v>2</v>
@@ -23878,13 +26664,13 @@
       <c r="DA26" s="195"/>
       <c r="DB26" s="195"/>
       <c r="DC26" s="195"/>
-      <c r="DD26" s="330" t="s">
+      <c r="DD26" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="DE26" s="331"/>
-      <c r="DF26" s="331"/>
-      <c r="DG26" s="331"/>
-      <c r="DH26" s="332"/>
+      <c r="DE26" s="333"/>
+      <c r="DF26" s="333"/>
+      <c r="DG26" s="333"/>
+      <c r="DH26" s="334"/>
       <c r="DJ26" s="190">
         <v>2</v>
       </c>
@@ -23903,13 +26689,13 @@
       <c r="DO26" s="195"/>
       <c r="DP26" s="195"/>
       <c r="DQ26" s="195"/>
-      <c r="DR26" s="330" t="s">
+      <c r="DR26" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="DS26" s="331"/>
-      <c r="DT26" s="331"/>
-      <c r="DU26" s="331"/>
-      <c r="DV26" s="332"/>
+      <c r="DS26" s="333"/>
+      <c r="DT26" s="333"/>
+      <c r="DU26" s="333"/>
+      <c r="DV26" s="334"/>
     </row>
     <row r="27" spans="2:126" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="190">
@@ -23957,13 +26743,13 @@
       </c>
       <c r="V27" s="195"/>
       <c r="W27" s="195"/>
-      <c r="X27" s="333" t="s">
+      <c r="X27" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="Y27" s="334"/>
-      <c r="Z27" s="334"/>
-      <c r="AA27" s="334"/>
-      <c r="AB27" s="335"/>
+      <c r="Y27" s="336"/>
+      <c r="Z27" s="336"/>
+      <c r="AA27" s="336"/>
+      <c r="AB27" s="337"/>
       <c r="AC27" s="176"/>
       <c r="AD27" s="190">
         <v>3</v>
@@ -23985,13 +26771,13 @@
       </c>
       <c r="AJ27" s="195"/>
       <c r="AK27" s="195"/>
-      <c r="AL27" s="333" t="s">
+      <c r="AL27" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="AM27" s="334"/>
-      <c r="AN27" s="334"/>
-      <c r="AO27" s="334"/>
-      <c r="AP27" s="335"/>
+      <c r="AM27" s="336"/>
+      <c r="AN27" s="336"/>
+      <c r="AO27" s="336"/>
+      <c r="AP27" s="337"/>
       <c r="AR27" s="190">
         <v>3</v>
       </c>
@@ -24012,13 +26798,13 @@
       </c>
       <c r="AX27" s="195"/>
       <c r="AY27" s="195"/>
-      <c r="AZ27" s="313" t="s">
+      <c r="AZ27" s="315" t="s">
         <v>82</v>
       </c>
-      <c r="BA27" s="314"/>
-      <c r="BB27" s="314"/>
-      <c r="BC27" s="314"/>
-      <c r="BD27" s="315"/>
+      <c r="BA27" s="316"/>
+      <c r="BB27" s="316"/>
+      <c r="BC27" s="316"/>
+      <c r="BD27" s="317"/>
       <c r="BE27" s="176"/>
       <c r="BF27" s="190">
         <v>3</v>
@@ -24040,13 +26826,13 @@
       </c>
       <c r="BL27" s="195"/>
       <c r="BM27" s="195"/>
-      <c r="BN27" s="333" t="s">
+      <c r="BN27" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="BO27" s="334"/>
-      <c r="BP27" s="334"/>
-      <c r="BQ27" s="334"/>
-      <c r="BR27" s="335"/>
+      <c r="BO27" s="336"/>
+      <c r="BP27" s="336"/>
+      <c r="BQ27" s="336"/>
+      <c r="BR27" s="337"/>
       <c r="BT27" s="190">
         <v>3</v>
       </c>
@@ -24067,13 +26853,13 @@
       </c>
       <c r="BZ27" s="195"/>
       <c r="CA27" s="195"/>
-      <c r="CB27" s="333" t="s">
+      <c r="CB27" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="CC27" s="334"/>
-      <c r="CD27" s="334"/>
-      <c r="CE27" s="334"/>
-      <c r="CF27" s="335"/>
+      <c r="CC27" s="336"/>
+      <c r="CD27" s="336"/>
+      <c r="CE27" s="336"/>
+      <c r="CF27" s="337"/>
       <c r="CG27" s="176"/>
       <c r="CH27" s="190">
         <v>3</v>
@@ -24095,13 +26881,13 @@
       </c>
       <c r="CN27" s="195"/>
       <c r="CO27" s="195"/>
-      <c r="CP27" s="333" t="s">
+      <c r="CP27" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="CQ27" s="334"/>
-      <c r="CR27" s="334"/>
-      <c r="CS27" s="334"/>
-      <c r="CT27" s="335"/>
+      <c r="CQ27" s="336"/>
+      <c r="CR27" s="336"/>
+      <c r="CS27" s="336"/>
+      <c r="CT27" s="337"/>
       <c r="CU27" s="175"/>
       <c r="CV27" s="190">
         <v>3</v>
@@ -24123,13 +26909,13 @@
       </c>
       <c r="DB27" s="195"/>
       <c r="DC27" s="195"/>
-      <c r="DD27" s="333" t="s">
+      <c r="DD27" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="DE27" s="334"/>
-      <c r="DF27" s="334"/>
-      <c r="DG27" s="334"/>
-      <c r="DH27" s="335"/>
+      <c r="DE27" s="336"/>
+      <c r="DF27" s="336"/>
+      <c r="DG27" s="336"/>
+      <c r="DH27" s="337"/>
       <c r="DJ27" s="190">
         <v>3</v>
       </c>
@@ -24150,13 +26936,13 @@
       </c>
       <c r="DP27" s="195"/>
       <c r="DQ27" s="195"/>
-      <c r="DR27" s="333" t="s">
+      <c r="DR27" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="DS27" s="334"/>
-      <c r="DT27" s="334"/>
-      <c r="DU27" s="334"/>
-      <c r="DV27" s="335"/>
+      <c r="DS27" s="336"/>
+      <c r="DT27" s="336"/>
+      <c r="DU27" s="336"/>
+      <c r="DV27" s="337"/>
     </row>
     <row r="28" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="158">
@@ -24194,13 +26980,13 @@
       <c r="U28" s="206"/>
       <c r="V28" s="206"/>
       <c r="W28" s="206"/>
-      <c r="X28" s="336" t="s">
+      <c r="X28" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="Y28" s="337"/>
-      <c r="Z28" s="337"/>
-      <c r="AA28" s="337"/>
-      <c r="AB28" s="338"/>
+      <c r="Y28" s="339"/>
+      <c r="Z28" s="339"/>
+      <c r="AA28" s="339"/>
+      <c r="AB28" s="340"/>
       <c r="AC28" s="176"/>
       <c r="AD28" s="190">
         <v>4</v>
@@ -24224,13 +27010,13 @@
         <v>27</v>
       </c>
       <c r="AK28" s="206"/>
-      <c r="AL28" s="336" t="s">
+      <c r="AL28" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="AM28" s="337"/>
-      <c r="AN28" s="337"/>
-      <c r="AO28" s="337"/>
-      <c r="AP28" s="338"/>
+      <c r="AM28" s="339"/>
+      <c r="AN28" s="339"/>
+      <c r="AO28" s="339"/>
+      <c r="AP28" s="340"/>
       <c r="AR28" s="205"/>
       <c r="AS28" s="206"/>
       <c r="AT28" s="206"/>
@@ -24239,13 +27025,13 @@
       <c r="AW28" s="206"/>
       <c r="AX28" s="206"/>
       <c r="AY28" s="206"/>
-      <c r="AZ28" s="316" t="s">
+      <c r="AZ28" s="318" t="s">
         <v>89</v>
       </c>
-      <c r="BA28" s="317"/>
-      <c r="BB28" s="317"/>
-      <c r="BC28" s="317"/>
-      <c r="BD28" s="318"/>
+      <c r="BA28" s="319"/>
+      <c r="BB28" s="319"/>
+      <c r="BC28" s="319"/>
+      <c r="BD28" s="320"/>
       <c r="BE28" s="176"/>
       <c r="BF28" s="190">
         <v>4</v>
@@ -24269,13 +27055,13 @@
         <v>27</v>
       </c>
       <c r="BM28" s="206"/>
-      <c r="BN28" s="336" t="s">
+      <c r="BN28" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="BO28" s="337"/>
-      <c r="BP28" s="337"/>
-      <c r="BQ28" s="337"/>
-      <c r="BR28" s="338"/>
+      <c r="BO28" s="339"/>
+      <c r="BP28" s="339"/>
+      <c r="BQ28" s="339"/>
+      <c r="BR28" s="340"/>
       <c r="BT28" s="205"/>
       <c r="BU28" s="206"/>
       <c r="BV28" s="206"/>
@@ -24284,13 +27070,13 @@
       <c r="BY28" s="206"/>
       <c r="BZ28" s="206"/>
       <c r="CA28" s="206"/>
-      <c r="CB28" s="336" t="s">
+      <c r="CB28" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="CC28" s="337"/>
-      <c r="CD28" s="337"/>
-      <c r="CE28" s="337"/>
-      <c r="CF28" s="338"/>
+      <c r="CC28" s="339"/>
+      <c r="CD28" s="339"/>
+      <c r="CE28" s="339"/>
+      <c r="CF28" s="340"/>
       <c r="CG28" s="176"/>
       <c r="CH28" s="190">
         <v>4</v>
@@ -24314,13 +27100,13 @@
         <v>27</v>
       </c>
       <c r="CO28" s="206"/>
-      <c r="CP28" s="336" t="s">
+      <c r="CP28" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="CQ28" s="337"/>
-      <c r="CR28" s="337"/>
-      <c r="CS28" s="337"/>
-      <c r="CT28" s="338"/>
+      <c r="CQ28" s="339"/>
+      <c r="CR28" s="339"/>
+      <c r="CS28" s="339"/>
+      <c r="CT28" s="340"/>
       <c r="CU28" s="175"/>
       <c r="CV28" s="205"/>
       <c r="CW28" s="206"/>
@@ -24330,13 +27116,13 @@
       <c r="DA28" s="206"/>
       <c r="DB28" s="206"/>
       <c r="DC28" s="206"/>
-      <c r="DD28" s="336" t="s">
+      <c r="DD28" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="DE28" s="337"/>
-      <c r="DF28" s="337"/>
-      <c r="DG28" s="337"/>
-      <c r="DH28" s="338"/>
+      <c r="DE28" s="339"/>
+      <c r="DF28" s="339"/>
+      <c r="DG28" s="339"/>
+      <c r="DH28" s="340"/>
       <c r="DJ28" s="190">
         <v>4</v>
       </c>
@@ -24359,13 +27145,13 @@
         <v>27</v>
       </c>
       <c r="DQ28" s="206"/>
-      <c r="DR28" s="336" t="s">
+      <c r="DR28" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="DS28" s="337"/>
-      <c r="DT28" s="337"/>
-      <c r="DU28" s="337"/>
-      <c r="DV28" s="338"/>
+      <c r="DS28" s="339"/>
+      <c r="DT28" s="339"/>
+      <c r="DU28" s="339"/>
+      <c r="DV28" s="340"/>
     </row>
     <row r="29" spans="2:126" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="208" t="s">
@@ -27246,27 +30032,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C3766D-0798-4A53-BEED-6015BF323E88}">
-  <dimension ref="B2:CO35"/>
+  <dimension ref="B2:DY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DB3" sqref="DB3"/>
+    <sheetView topLeftCell="BH25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EA28" sqref="EA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="339" t="s">
+      <c r="B3" s="353" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="340"/>
-      <c r="G3" s="340"/>
-      <c r="H3" s="340"/>
-      <c r="I3" s="340"/>
-      <c r="J3" s="341"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="354"/>
+      <c r="G3" s="354"/>
+      <c r="H3" s="354"/>
+      <c r="I3" s="354"/>
+      <c r="J3" s="355"/>
     </row>
     <row r="4" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="86" t="s">
@@ -27355,21 +30141,21 @@
         <v>25</v>
       </c>
       <c r="J6" s="92"/>
-      <c r="CC6" s="408" t="s">
+      <c r="CC6" s="356" t="s">
         <v>37</v>
       </c>
-      <c r="CD6" s="409"/>
-      <c r="CE6" s="409"/>
-      <c r="CF6" s="409"/>
-      <c r="CG6" s="409"/>
-      <c r="CH6" s="409"/>
-      <c r="CI6" s="409"/>
-      <c r="CJ6" s="409"/>
-      <c r="CK6" s="409"/>
-      <c r="CL6" s="409"/>
-      <c r="CM6" s="409"/>
-      <c r="CN6" s="409"/>
-      <c r="CO6" s="410"/>
+      <c r="CD6" s="357"/>
+      <c r="CE6" s="357"/>
+      <c r="CF6" s="357"/>
+      <c r="CG6" s="357"/>
+      <c r="CH6" s="357"/>
+      <c r="CI6" s="357"/>
+      <c r="CJ6" s="357"/>
+      <c r="CK6" s="357"/>
+      <c r="CL6" s="357"/>
+      <c r="CM6" s="357"/>
+      <c r="CN6" s="357"/>
+      <c r="CO6" s="358"/>
     </row>
     <row r="7" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="98">
@@ -27389,21 +30175,21 @@
       <c r="H7" s="99"/>
       <c r="I7" s="99"/>
       <c r="J7" s="100"/>
-      <c r="CC7" s="348" t="s">
+      <c r="CC7" s="344" t="s">
         <v>98</v>
       </c>
-      <c r="CD7" s="349"/>
-      <c r="CE7" s="349"/>
-      <c r="CF7" s="349"/>
-      <c r="CG7" s="349"/>
-      <c r="CH7" s="349"/>
-      <c r="CI7" s="349"/>
-      <c r="CJ7" s="349"/>
-      <c r="CK7" s="349"/>
-      <c r="CL7" s="349"/>
-      <c r="CM7" s="349"/>
-      <c r="CN7" s="349"/>
-      <c r="CO7" s="350"/>
+      <c r="CD7" s="345"/>
+      <c r="CE7" s="345"/>
+      <c r="CF7" s="345"/>
+      <c r="CG7" s="345"/>
+      <c r="CH7" s="345"/>
+      <c r="CI7" s="345"/>
+      <c r="CJ7" s="345"/>
+      <c r="CK7" s="345"/>
+      <c r="CL7" s="345"/>
+      <c r="CM7" s="345"/>
+      <c r="CN7" s="345"/>
+      <c r="CO7" s="346"/>
     </row>
     <row r="8" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="101">
@@ -27425,21 +30211,21 @@
       <c r="H8" s="102"/>
       <c r="I8" s="102"/>
       <c r="J8" s="103"/>
-      <c r="CC8" s="345" t="s">
+      <c r="CC8" s="347" t="s">
         <v>105</v>
       </c>
-      <c r="CD8" s="346"/>
-      <c r="CE8" s="346"/>
-      <c r="CF8" s="346"/>
-      <c r="CG8" s="346"/>
-      <c r="CH8" s="346"/>
-      <c r="CI8" s="346"/>
-      <c r="CJ8" s="346"/>
-      <c r="CK8" s="346"/>
-      <c r="CL8" s="346"/>
-      <c r="CM8" s="346"/>
-      <c r="CN8" s="346"/>
-      <c r="CO8" s="347"/>
+      <c r="CD8" s="348"/>
+      <c r="CE8" s="348"/>
+      <c r="CF8" s="348"/>
+      <c r="CG8" s="348"/>
+      <c r="CH8" s="348"/>
+      <c r="CI8" s="348"/>
+      <c r="CJ8" s="348"/>
+      <c r="CK8" s="348"/>
+      <c r="CL8" s="348"/>
+      <c r="CM8" s="348"/>
+      <c r="CN8" s="348"/>
+      <c r="CO8" s="349"/>
     </row>
     <row r="9" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="101">
@@ -27463,21 +30249,21 @@
       <c r="H9" s="102"/>
       <c r="I9" s="102"/>
       <c r="J9" s="103"/>
-      <c r="CC9" s="345" t="s">
+      <c r="CC9" s="347" t="s">
         <v>94</v>
       </c>
-      <c r="CD9" s="346"/>
-      <c r="CE9" s="346"/>
-      <c r="CF9" s="346"/>
-      <c r="CG9" s="346"/>
-      <c r="CH9" s="346"/>
-      <c r="CI9" s="346"/>
-      <c r="CJ9" s="346"/>
-      <c r="CK9" s="346"/>
-      <c r="CL9" s="346"/>
-      <c r="CM9" s="346"/>
-      <c r="CN9" s="346"/>
-      <c r="CO9" s="347"/>
+      <c r="CD9" s="348"/>
+      <c r="CE9" s="348"/>
+      <c r="CF9" s="348"/>
+      <c r="CG9" s="348"/>
+      <c r="CH9" s="348"/>
+      <c r="CI9" s="348"/>
+      <c r="CJ9" s="348"/>
+      <c r="CK9" s="348"/>
+      <c r="CL9" s="348"/>
+      <c r="CM9" s="348"/>
+      <c r="CN9" s="348"/>
+      <c r="CO9" s="349"/>
     </row>
     <row r="10" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="76"/>
@@ -27505,21 +30291,21 @@
       <c r="J10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="CC10" s="413" t="s">
+      <c r="CC10" s="350" t="s">
         <v>95</v>
       </c>
-      <c r="CD10" s="414"/>
-      <c r="CE10" s="414"/>
-      <c r="CF10" s="414"/>
-      <c r="CG10" s="414"/>
-      <c r="CH10" s="414"/>
-      <c r="CI10" s="414"/>
-      <c r="CJ10" s="414"/>
-      <c r="CK10" s="414"/>
-      <c r="CL10" s="414"/>
-      <c r="CM10" s="414"/>
-      <c r="CN10" s="414"/>
-      <c r="CO10" s="415"/>
+      <c r="CD10" s="351"/>
+      <c r="CE10" s="351"/>
+      <c r="CF10" s="351"/>
+      <c r="CG10" s="351"/>
+      <c r="CH10" s="351"/>
+      <c r="CI10" s="351"/>
+      <c r="CJ10" s="351"/>
+      <c r="CK10" s="351"/>
+      <c r="CL10" s="351"/>
+      <c r="CM10" s="351"/>
+      <c r="CN10" s="351"/>
+      <c r="CO10" s="352"/>
     </row>
     <row r="11" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="53">
@@ -27759,7 +30545,7 @@
       <c r="CN16" s="195"/>
       <c r="CO16" s="263"/>
     </row>
-    <row r="17" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="53">
         <v>7</v>
       </c>
@@ -27795,7 +30581,7 @@
       <c r="CN17" s="195"/>
       <c r="CO17" s="263"/>
     </row>
-    <row r="18" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="60">
         <v>8</v>
       </c>
@@ -27825,7 +30611,7 @@
       <c r="CN18" s="195"/>
       <c r="CO18" s="263"/>
     </row>
-    <row r="19" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -27853,18 +30639,18 @@
       <c r="CN19" s="195"/>
       <c r="CO19" s="263"/>
     </row>
-    <row r="20" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="339" t="s">
+    <row r="20" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="353" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="340"/>
-      <c r="D20" s="340"/>
-      <c r="E20" s="340"/>
-      <c r="F20" s="340"/>
-      <c r="G20" s="340"/>
-      <c r="H20" s="340"/>
-      <c r="I20" s="340"/>
-      <c r="J20" s="341"/>
+      <c r="C20" s="354"/>
+      <c r="D20" s="354"/>
+      <c r="E20" s="354"/>
+      <c r="F20" s="354"/>
+      <c r="G20" s="354"/>
+      <c r="H20" s="354"/>
+      <c r="I20" s="354"/>
+      <c r="J20" s="355"/>
       <c r="CC20" s="262">
         <v>7</v>
       </c>
@@ -27881,7 +30667,7 @@
       <c r="CN20" s="195"/>
       <c r="CO20" s="263"/>
     </row>
-    <row r="21" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="86" t="s">
         <v>0</v>
       </c>
@@ -27925,7 +30711,7 @@
       <c r="CN21" s="195"/>
       <c r="CO21" s="263"/>
     </row>
-    <row r="22" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="89" t="s">
         <v>9</v>
       </c>
@@ -27969,7 +30755,7 @@
       <c r="CN22" s="195"/>
       <c r="CO22" s="263"/>
     </row>
-    <row r="23" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="90" t="s">
         <v>18</v>
       </c>
@@ -27995,18 +30781,18 @@
         <v>25</v>
       </c>
       <c r="J23" s="97"/>
-      <c r="BS23" s="416" t="s">
+      <c r="BS23" s="359" t="s">
         <v>108</v>
       </c>
-      <c r="BT23" s="417"/>
-      <c r="BU23" s="417"/>
-      <c r="BV23" s="417"/>
-      <c r="BW23" s="417" t="s">
+      <c r="BT23" s="360"/>
+      <c r="BU23" s="360"/>
+      <c r="BV23" s="360"/>
+      <c r="BW23" s="360" t="s">
         <v>106</v>
       </c>
-      <c r="BX23" s="417"/>
-      <c r="BY23" s="417"/>
-      <c r="BZ23" s="418"/>
+      <c r="BX23" s="360"/>
+      <c r="BY23" s="360"/>
+      <c r="BZ23" s="361"/>
       <c r="CC23" s="264">
         <v>10</v>
       </c>
@@ -28023,7 +30809,7 @@
       <c r="CN23" s="195"/>
       <c r="CO23" s="263"/>
     </row>
-    <row r="24" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="98">
         <v>1</v>
       </c>
@@ -28041,22 +30827,22 @@
       <c r="H24" s="99"/>
       <c r="I24" s="99"/>
       <c r="J24" s="100"/>
-      <c r="BO24" s="411"/>
-      <c r="BQ24" s="412" t="s">
+      <c r="BO24" s="277"/>
+      <c r="BQ24" s="278" t="s">
         <v>99</v>
       </c>
-      <c r="BS24" s="416" t="s">
+      <c r="BS24" s="359" t="s">
         <v>109</v>
       </c>
-      <c r="BT24" s="417"/>
-      <c r="BU24" s="417"/>
-      <c r="BV24" s="417"/>
-      <c r="BW24" s="417">
+      <c r="BT24" s="360"/>
+      <c r="BU24" s="360"/>
+      <c r="BV24" s="360"/>
+      <c r="BW24" s="360">
         <v>3</v>
       </c>
-      <c r="BX24" s="417"/>
-      <c r="BY24" s="417"/>
-      <c r="BZ24" s="418"/>
+      <c r="BX24" s="360"/>
+      <c r="BY24" s="360"/>
+      <c r="BZ24" s="361"/>
       <c r="CC24" s="264">
         <v>11</v>
       </c>
@@ -28073,7 +30859,7 @@
       <c r="CN24" s="195"/>
       <c r="CO24" s="263"/>
     </row>
-    <row r="25" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="101">
         <v>2</v>
       </c>
@@ -28093,19 +30879,19 @@
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="103"/>
-      <c r="BQ25" s="412" t="s">
+      <c r="BQ25" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="BS25" s="416" t="s">
+      <c r="BS25" s="359" t="s">
         <v>107</v>
       </c>
-      <c r="BT25" s="417"/>
-      <c r="BU25" s="417"/>
-      <c r="BV25" s="417"/>
-      <c r="BW25" s="417"/>
-      <c r="BX25" s="417"/>
-      <c r="BY25" s="417"/>
-      <c r="BZ25" s="418"/>
+      <c r="BT25" s="360"/>
+      <c r="BU25" s="360"/>
+      <c r="BV25" s="360"/>
+      <c r="BW25" s="360"/>
+      <c r="BX25" s="360"/>
+      <c r="BY25" s="360"/>
+      <c r="BZ25" s="361"/>
       <c r="CC25" s="265">
         <v>12</v>
       </c>
@@ -28122,7 +30908,7 @@
       <c r="CN25" s="266"/>
       <c r="CO25" s="267"/>
     </row>
-    <row r="26" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="101">
         <v>3</v>
       </c>
@@ -28144,11 +30930,11 @@
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="103"/>
-      <c r="BQ26" s="412" t="s">
+      <c r="BQ26" s="278" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="76"/>
       <c r="C27" s="50" t="s">
         <v>0</v>
@@ -28174,11 +30960,11 @@
       <c r="J27" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="BQ27" s="412" t="s">
+      <c r="BQ27" s="278" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="53">
         <v>1</v>
       </c>
@@ -28190,11 +30976,26 @@
       <c r="H28" s="57"/>
       <c r="I28" s="57"/>
       <c r="J28" s="96"/>
-      <c r="BQ28" s="412" t="s">
+      <c r="BQ28" s="278" t="s">
         <v>103</v>
       </c>
+      <c r="DM28" s="341" t="s">
+        <v>110</v>
+      </c>
+      <c r="DN28" s="342"/>
+      <c r="DO28" s="342"/>
+      <c r="DP28" s="342"/>
+      <c r="DQ28" s="342"/>
+      <c r="DR28" s="342"/>
+      <c r="DS28" s="342"/>
+      <c r="DT28" s="342"/>
+      <c r="DU28" s="342"/>
+      <c r="DV28" s="342"/>
+      <c r="DW28" s="342"/>
+      <c r="DX28" s="342"/>
+      <c r="DY28" s="343"/>
     </row>
-    <row r="29" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="53">
         <v>2</v>
       </c>
@@ -28206,11 +31007,26 @@
       <c r="H29" s="57"/>
       <c r="I29" s="57"/>
       <c r="J29" s="96"/>
-      <c r="BQ29" s="412" t="s">
+      <c r="BQ29" s="278" t="s">
         <v>104</v>
       </c>
+      <c r="DM29" s="344" t="s">
+        <v>98</v>
+      </c>
+      <c r="DN29" s="345"/>
+      <c r="DO29" s="345"/>
+      <c r="DP29" s="345"/>
+      <c r="DQ29" s="345"/>
+      <c r="DR29" s="345"/>
+      <c r="DS29" s="345"/>
+      <c r="DT29" s="345"/>
+      <c r="DU29" s="345"/>
+      <c r="DV29" s="345"/>
+      <c r="DW29" s="345"/>
+      <c r="DX29" s="345"/>
+      <c r="DY29" s="346"/>
     </row>
-    <row r="30" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="53">
         <v>3</v>
       </c>
@@ -28222,8 +31038,23 @@
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="96"/>
+      <c r="DM30" s="347" t="s">
+        <v>105</v>
+      </c>
+      <c r="DN30" s="348"/>
+      <c r="DO30" s="348"/>
+      <c r="DP30" s="348"/>
+      <c r="DQ30" s="348"/>
+      <c r="DR30" s="348"/>
+      <c r="DS30" s="348"/>
+      <c r="DT30" s="348"/>
+      <c r="DU30" s="348"/>
+      <c r="DV30" s="348"/>
+      <c r="DW30" s="348"/>
+      <c r="DX30" s="348"/>
+      <c r="DY30" s="349"/>
     </row>
-    <row r="31" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53">
         <v>4</v>
       </c>
@@ -28235,8 +31066,23 @@
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
       <c r="J31" s="96"/>
+      <c r="DM31" s="347" t="s">
+        <v>94</v>
+      </c>
+      <c r="DN31" s="348"/>
+      <c r="DO31" s="348"/>
+      <c r="DP31" s="348"/>
+      <c r="DQ31" s="348"/>
+      <c r="DR31" s="348"/>
+      <c r="DS31" s="348"/>
+      <c r="DT31" s="348"/>
+      <c r="DU31" s="348"/>
+      <c r="DV31" s="348"/>
+      <c r="DW31" s="348"/>
+      <c r="DX31" s="348"/>
+      <c r="DY31" s="349"/>
     </row>
-    <row r="32" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53">
         <v>5</v>
       </c>
@@ -28248,8 +31094,23 @@
       <c r="H32" s="57"/>
       <c r="I32" s="57"/>
       <c r="J32" s="96"/>
+      <c r="DM32" s="350" t="s">
+        <v>95</v>
+      </c>
+      <c r="DN32" s="351"/>
+      <c r="DO32" s="351"/>
+      <c r="DP32" s="351"/>
+      <c r="DQ32" s="351"/>
+      <c r="DR32" s="351"/>
+      <c r="DS32" s="351"/>
+      <c r="DT32" s="351"/>
+      <c r="DU32" s="351"/>
+      <c r="DV32" s="351"/>
+      <c r="DW32" s="351"/>
+      <c r="DX32" s="351"/>
+      <c r="DY32" s="352"/>
     </row>
-    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53">
         <v>6</v>
       </c>
@@ -28261,8 +31122,47 @@
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
       <c r="J33" s="96"/>
+      <c r="DM33" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="DN33" s="272" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO33" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP33" s="272" t="s">
+        <v>3</v>
+      </c>
+      <c r="DQ33" s="272" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR33" s="272" t="s">
+        <v>5</v>
+      </c>
+      <c r="DS33" s="272" t="s">
+        <v>6</v>
+      </c>
+      <c r="DT33" s="272" t="s">
+        <v>7</v>
+      </c>
+      <c r="DU33" s="272" t="s">
+        <v>8</v>
+      </c>
+      <c r="DV33" s="272" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW33" s="272" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX33" s="272" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY33" s="273" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53">
         <v>7</v>
       </c>
@@ -28274,8 +31174,47 @@
       <c r="H34" s="57"/>
       <c r="I34" s="57"/>
       <c r="J34" s="96"/>
+      <c r="DM34" s="274" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN34" s="275" t="s">
+        <v>14</v>
+      </c>
+      <c r="DO34" s="275" t="s">
+        <v>15</v>
+      </c>
+      <c r="DP34" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="DQ34" s="275" t="s">
+        <v>17</v>
+      </c>
+      <c r="DR34" s="275" t="s">
+        <v>18</v>
+      </c>
+      <c r="DS34" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="DT34" s="275" t="s">
+        <v>20</v>
+      </c>
+      <c r="DU34" s="275" t="s">
+        <v>21</v>
+      </c>
+      <c r="DV34" s="275" t="s">
+        <v>22</v>
+      </c>
+      <c r="DW34" s="275" t="s">
+        <v>23</v>
+      </c>
+      <c r="DX34" s="275" t="s">
+        <v>24</v>
+      </c>
+      <c r="DY34" s="276" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="35" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="60">
         <v>8</v>
       </c>
@@ -28287,9 +31226,256 @@
       <c r="H35" s="91"/>
       <c r="I35" s="91"/>
       <c r="J35" s="97"/>
+      <c r="DM35" s="268"/>
+      <c r="DN35" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="DO35" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP35" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="DQ35" s="269" t="s">
+        <v>3</v>
+      </c>
+      <c r="DR35" s="269" t="s">
+        <v>4</v>
+      </c>
+      <c r="DS35" s="269" t="s">
+        <v>5</v>
+      </c>
+      <c r="DT35" s="269" t="s">
+        <v>6</v>
+      </c>
+      <c r="DU35" s="269" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV35" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="DW35" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="DX35" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="DY35" s="270" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DM36" s="262">
+        <v>1</v>
+      </c>
+      <c r="DN36" s="162"/>
+      <c r="DO36" s="162"/>
+      <c r="DP36" s="162"/>
+      <c r="DQ36" s="162"/>
+      <c r="DR36" s="162"/>
+      <c r="DS36" s="162"/>
+      <c r="DT36" s="162"/>
+      <c r="DU36" s="162"/>
+      <c r="DV36" s="195"/>
+      <c r="DW36" s="195"/>
+      <c r="DX36" s="195"/>
+      <c r="DY36" s="263"/>
+    </row>
+    <row r="37" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DM37" s="262">
+        <v>2</v>
+      </c>
+      <c r="DN37" s="162"/>
+      <c r="DO37" s="162"/>
+      <c r="DP37" s="162"/>
+      <c r="DQ37" s="162"/>
+      <c r="DR37" s="162"/>
+      <c r="DS37" s="162"/>
+      <c r="DT37" s="162"/>
+      <c r="DU37" s="162"/>
+      <c r="DV37" s="195"/>
+      <c r="DW37" s="195"/>
+      <c r="DX37" s="195"/>
+      <c r="DY37" s="263"/>
+    </row>
+    <row r="38" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DM38" s="262">
+        <v>3</v>
+      </c>
+      <c r="DN38" s="162"/>
+      <c r="DO38" s="162"/>
+      <c r="DP38" s="162"/>
+      <c r="DQ38" s="162"/>
+      <c r="DR38" s="162"/>
+      <c r="DS38" s="162"/>
+      <c r="DT38" s="162"/>
+      <c r="DU38" s="162"/>
+      <c r="DV38" s="195"/>
+      <c r="DW38" s="195"/>
+      <c r="DX38" s="195"/>
+      <c r="DY38" s="263"/>
+    </row>
+    <row r="39" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DM39" s="262">
+        <v>4</v>
+      </c>
+      <c r="DN39" s="162"/>
+      <c r="DO39" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP39" s="162"/>
+      <c r="DQ39" s="162"/>
+      <c r="DR39" s="162"/>
+      <c r="DS39" s="162"/>
+      <c r="DT39" s="162"/>
+      <c r="DU39" s="162"/>
+      <c r="DV39" s="195"/>
+      <c r="DW39" s="195"/>
+      <c r="DX39" s="195"/>
+      <c r="DY39" s="263"/>
+    </row>
+    <row r="40" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DM40" s="262">
+        <v>5</v>
+      </c>
+      <c r="DN40" s="162"/>
+      <c r="DO40" s="228"/>
+      <c r="DP40" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="DQ40" s="162"/>
+      <c r="DR40" s="162"/>
+      <c r="DS40" s="162"/>
+      <c r="DT40" s="162"/>
+      <c r="DU40" s="162"/>
+      <c r="DV40" s="195"/>
+      <c r="DW40" s="195"/>
+      <c r="DX40" s="195"/>
+      <c r="DY40" s="263"/>
+    </row>
+    <row r="41" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DM41" s="262">
+        <v>6</v>
+      </c>
+      <c r="DN41" s="162"/>
+      <c r="DO41" s="162"/>
+      <c r="DP41" s="162"/>
+      <c r="DQ41" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="DR41" s="162"/>
+      <c r="DS41" s="162"/>
+      <c r="DT41" s="162"/>
+      <c r="DU41" s="162"/>
+      <c r="DV41" s="195"/>
+      <c r="DW41" s="195"/>
+      <c r="DX41" s="195"/>
+      <c r="DY41" s="263"/>
+    </row>
+    <row r="42" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DM42" s="262">
+        <v>7</v>
+      </c>
+      <c r="DN42" s="162"/>
+      <c r="DO42" s="228"/>
+      <c r="DP42" s="162"/>
+      <c r="DQ42" s="162"/>
+      <c r="DR42" s="162"/>
+      <c r="DS42" s="162"/>
+      <c r="DT42" s="162"/>
+      <c r="DU42" s="162"/>
+      <c r="DV42" s="195"/>
+      <c r="DW42" s="195"/>
+      <c r="DX42" s="195"/>
+      <c r="DY42" s="263"/>
+    </row>
+    <row r="43" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DM43" s="262">
+        <v>8</v>
+      </c>
+      <c r="DN43" s="162"/>
+      <c r="DO43" s="162"/>
+      <c r="DP43" s="162"/>
+      <c r="DQ43" s="162"/>
+      <c r="DR43" s="162"/>
+      <c r="DS43" s="162"/>
+      <c r="DT43" s="162"/>
+      <c r="DU43" s="162"/>
+      <c r="DV43" s="195"/>
+      <c r="DW43" s="195"/>
+      <c r="DX43" s="195"/>
+      <c r="DY43" s="263"/>
+    </row>
+    <row r="44" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DM44" s="264">
+        <v>9</v>
+      </c>
+      <c r="DN44" s="195"/>
+      <c r="DO44" s="195"/>
+      <c r="DP44" s="195"/>
+      <c r="DQ44" s="195"/>
+      <c r="DR44" s="195"/>
+      <c r="DS44" s="195"/>
+      <c r="DT44" s="195"/>
+      <c r="DU44" s="195"/>
+      <c r="DV44" s="195"/>
+      <c r="DW44" s="195"/>
+      <c r="DX44" s="195"/>
+      <c r="DY44" s="263"/>
+    </row>
+    <row r="45" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DM45" s="264">
+        <v>10</v>
+      </c>
+      <c r="DN45" s="195"/>
+      <c r="DO45" s="243"/>
+      <c r="DP45" s="195"/>
+      <c r="DQ45" s="195"/>
+      <c r="DR45" s="195"/>
+      <c r="DS45" s="195"/>
+      <c r="DT45" s="195"/>
+      <c r="DU45" s="195"/>
+      <c r="DV45" s="195"/>
+      <c r="DW45" s="195"/>
+      <c r="DX45" s="195"/>
+      <c r="DY45" s="263"/>
+    </row>
+    <row r="46" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DM46" s="264">
+        <v>11</v>
+      </c>
+      <c r="DN46" s="195"/>
+      <c r="DO46" s="195"/>
+      <c r="DP46" s="195"/>
+      <c r="DQ46" s="195"/>
+      <c r="DR46" s="195"/>
+      <c r="DS46" s="195"/>
+      <c r="DT46" s="195"/>
+      <c r="DU46" s="195"/>
+      <c r="DV46" s="195"/>
+      <c r="DW46" s="195"/>
+      <c r="DX46" s="195"/>
+      <c r="DY46" s="263"/>
+    </row>
+    <row r="47" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM47" s="265">
+        <v>12</v>
+      </c>
+      <c r="DN47" s="266"/>
+      <c r="DO47" s="266"/>
+      <c r="DP47" s="266"/>
+      <c r="DQ47" s="266"/>
+      <c r="DR47" s="266"/>
+      <c r="DS47" s="266"/>
+      <c r="DT47" s="266"/>
+      <c r="DU47" s="266"/>
+      <c r="DV47" s="266"/>
+      <c r="DW47" s="266"/>
+      <c r="DX47" s="266"/>
+      <c r="DY47" s="267"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
     <mergeCell ref="BS23:BV23"/>
     <mergeCell ref="BS24:BV24"/>
     <mergeCell ref="BS25:BV25"/>
@@ -28303,6 +31489,11 @@
     <mergeCell ref="CC8:CO8"/>
     <mergeCell ref="CC9:CO9"/>
     <mergeCell ref="CC10:CO10"/>
+    <mergeCell ref="DM28:DY28"/>
+    <mergeCell ref="DM29:DY29"/>
+    <mergeCell ref="DM30:DY30"/>
+    <mergeCell ref="DM31:DY31"/>
+    <mergeCell ref="DM32:DY32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -28312,63 +31503,63 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C49541-9EAD-4A1A-85B9-51C120D59AE7}">
-  <dimension ref="E1:BY43"/>
+  <dimension ref="E1:CZ43"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:Q21"/>
+    <sheetView tabSelected="1" topLeftCell="AN8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="DE24" sqref="DE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="5:32" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="5:32" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="351" t="s">
+      <c r="E2" s="371" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="352"/>
-      <c r="G2" s="352"/>
-      <c r="H2" s="352"/>
-      <c r="I2" s="352"/>
-      <c r="J2" s="352"/>
-      <c r="K2" s="352"/>
-      <c r="L2" s="352"/>
-      <c r="M2" s="352"/>
-      <c r="N2" s="352"/>
-      <c r="O2" s="352"/>
-      <c r="P2" s="352"/>
-      <c r="Q2" s="353"/>
-      <c r="T2" s="366" t="s">
+      <c r="F2" s="372"/>
+      <c r="G2" s="372"/>
+      <c r="H2" s="372"/>
+      <c r="I2" s="372"/>
+      <c r="J2" s="372"/>
+      <c r="K2" s="372"/>
+      <c r="L2" s="372"/>
+      <c r="M2" s="372"/>
+      <c r="N2" s="372"/>
+      <c r="O2" s="372"/>
+      <c r="P2" s="372"/>
+      <c r="Q2" s="373"/>
+      <c r="T2" s="368" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="367"/>
-      <c r="V2" s="367"/>
-      <c r="W2" s="367"/>
-      <c r="X2" s="367"/>
-      <c r="Y2" s="367"/>
-      <c r="Z2" s="367"/>
-      <c r="AA2" s="367"/>
-      <c r="AB2" s="367"/>
-      <c r="AC2" s="367"/>
-      <c r="AD2" s="367"/>
-      <c r="AE2" s="367"/>
-      <c r="AF2" s="368"/>
+      <c r="U2" s="369"/>
+      <c r="V2" s="369"/>
+      <c r="W2" s="369"/>
+      <c r="X2" s="369"/>
+      <c r="Y2" s="369"/>
+      <c r="Z2" s="369"/>
+      <c r="AA2" s="369"/>
+      <c r="AB2" s="369"/>
+      <c r="AC2" s="369"/>
+      <c r="AD2" s="369"/>
+      <c r="AE2" s="369"/>
+      <c r="AF2" s="370"/>
     </row>
     <row r="3" spans="5:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="348" t="s">
+      <c r="E3" s="344" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="349"/>
-      <c r="G3" s="349"/>
-      <c r="H3" s="349"/>
-      <c r="I3" s="349"/>
-      <c r="J3" s="349"/>
-      <c r="K3" s="349"/>
-      <c r="L3" s="349"/>
-      <c r="M3" s="349"/>
-      <c r="N3" s="349"/>
-      <c r="O3" s="349"/>
-      <c r="P3" s="349"/>
-      <c r="Q3" s="350"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="345"/>
+      <c r="Q3" s="346"/>
       <c r="T3" s="255">
         <v>1</v>
       </c>
@@ -28392,21 +31583,21 @@
       <c r="AF3" s="258"/>
     </row>
     <row r="4" spans="5:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="345" t="s">
+      <c r="E4" s="347" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="346"/>
-      <c r="G4" s="346"/>
-      <c r="H4" s="346"/>
-      <c r="I4" s="346"/>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
-      <c r="L4" s="346"/>
-      <c r="M4" s="346"/>
-      <c r="N4" s="346"/>
-      <c r="O4" s="346"/>
-      <c r="P4" s="346"/>
-      <c r="Q4" s="347"/>
+      <c r="F4" s="348"/>
+      <c r="G4" s="348"/>
+      <c r="H4" s="348"/>
+      <c r="I4" s="348"/>
+      <c r="J4" s="348"/>
+      <c r="K4" s="348"/>
+      <c r="L4" s="348"/>
+      <c r="M4" s="348"/>
+      <c r="N4" s="348"/>
+      <c r="O4" s="348"/>
+      <c r="P4" s="348"/>
+      <c r="Q4" s="349"/>
       <c r="T4" s="253">
         <v>2</v>
       </c>
@@ -28432,21 +31623,21 @@
       <c r="AF4" s="254"/>
     </row>
     <row r="5" spans="5:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="345" t="s">
+      <c r="E5" s="347" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="346"/>
-      <c r="G5" s="346"/>
-      <c r="H5" s="346"/>
-      <c r="I5" s="346"/>
-      <c r="J5" s="346"/>
-      <c r="K5" s="346"/>
-      <c r="L5" s="346"/>
-      <c r="M5" s="346"/>
-      <c r="N5" s="346"/>
-      <c r="O5" s="346"/>
-      <c r="P5" s="346"/>
-      <c r="Q5" s="347"/>
+      <c r="F5" s="348"/>
+      <c r="G5" s="348"/>
+      <c r="H5" s="348"/>
+      <c r="I5" s="348"/>
+      <c r="J5" s="348"/>
+      <c r="K5" s="348"/>
+      <c r="L5" s="348"/>
+      <c r="M5" s="348"/>
+      <c r="N5" s="348"/>
+      <c r="O5" s="348"/>
+      <c r="P5" s="348"/>
+      <c r="Q5" s="349"/>
       <c r="T5" s="253">
         <v>3</v>
       </c>
@@ -28474,21 +31665,21 @@
       <c r="AF5" s="254"/>
     </row>
     <row r="6" spans="5:32" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="345" t="s">
+      <c r="E6" s="347" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="346"/>
-      <c r="G6" s="346"/>
-      <c r="H6" s="346"/>
-      <c r="I6" s="346"/>
-      <c r="J6" s="346"/>
-      <c r="K6" s="346"/>
-      <c r="L6" s="346"/>
-      <c r="M6" s="346"/>
-      <c r="N6" s="346"/>
-      <c r="O6" s="346"/>
-      <c r="P6" s="346"/>
-      <c r="Q6" s="347"/>
+      <c r="F6" s="348"/>
+      <c r="G6" s="348"/>
+      <c r="H6" s="348"/>
+      <c r="I6" s="348"/>
+      <c r="J6" s="348"/>
+      <c r="K6" s="348"/>
+      <c r="L6" s="348"/>
+      <c r="M6" s="348"/>
+      <c r="N6" s="348"/>
+      <c r="O6" s="348"/>
+      <c r="P6" s="348"/>
+      <c r="Q6" s="349"/>
       <c r="T6" s="259">
         <v>4</v>
       </c>
@@ -28977,7 +32168,7 @@
       <c r="AE16" s="162"/>
       <c r="AF16" s="225"/>
     </row>
-    <row r="17" spans="5:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="262">
         <v>8</v>
       </c>
@@ -29009,7 +32200,7 @@
       <c r="AE17" s="162"/>
       <c r="AF17" s="225"/>
     </row>
-    <row r="18" spans="5:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="264">
         <v>9</v>
       </c>
@@ -29041,7 +32232,7 @@
       <c r="AE18" s="162"/>
       <c r="AF18" s="225"/>
     </row>
-    <row r="19" spans="5:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="264">
         <v>10</v>
       </c>
@@ -29073,7 +32264,7 @@
       <c r="AE19" s="162"/>
       <c r="AF19" s="225"/>
     </row>
-    <row r="20" spans="5:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="264">
         <v>11</v>
       </c>
@@ -29105,7 +32296,7 @@
       <c r="AE20" s="162"/>
       <c r="AF20" s="225"/>
     </row>
-    <row r="21" spans="5:77" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="265">
         <v>12</v>
       </c>
@@ -29137,7 +32328,7 @@
       <c r="AE21" s="213"/>
       <c r="AF21" s="214"/>
     </row>
-    <row r="22" spans="5:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="176"/>
       <c r="F22" s="176"/>
       <c r="G22" s="176"/>
@@ -29152,55 +32343,70 @@
       <c r="P22" s="176"/>
       <c r="Q22" s="176"/>
     </row>
-    <row r="23" spans="5:77" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="5:77" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AH24" s="369" t="s">
+    <row r="23" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH24" s="374" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="370"/>
-      <c r="AJ24" s="370"/>
-      <c r="AK24" s="370"/>
-      <c r="AL24" s="370"/>
-      <c r="AM24" s="370"/>
-      <c r="AN24" s="370"/>
-      <c r="AO24" s="370"/>
-      <c r="AP24" s="370"/>
-      <c r="AQ24" s="370"/>
-      <c r="AR24" s="370"/>
-      <c r="AS24" s="370"/>
-      <c r="AT24" s="371"/>
-      <c r="AW24" s="366" t="s">
+      <c r="AI24" s="375"/>
+      <c r="AJ24" s="375"/>
+      <c r="AK24" s="375"/>
+      <c r="AL24" s="375"/>
+      <c r="AM24" s="375"/>
+      <c r="AN24" s="375"/>
+      <c r="AO24" s="375"/>
+      <c r="AP24" s="375"/>
+      <c r="AQ24" s="375"/>
+      <c r="AR24" s="375"/>
+      <c r="AS24" s="375"/>
+      <c r="AT24" s="376"/>
+      <c r="AW24" s="368" t="s">
         <v>91</v>
       </c>
-      <c r="AX24" s="367"/>
-      <c r="AY24" s="367"/>
-      <c r="AZ24" s="367"/>
-      <c r="BA24" s="367"/>
-      <c r="BB24" s="367"/>
-      <c r="BC24" s="367"/>
-      <c r="BD24" s="367"/>
-      <c r="BE24" s="367"/>
-      <c r="BF24" s="367"/>
-      <c r="BG24" s="367"/>
-      <c r="BH24" s="367"/>
-      <c r="BI24" s="368"/>
-      <c r="BM24" s="342" t="s">
+      <c r="AX24" s="369"/>
+      <c r="AY24" s="369"/>
+      <c r="AZ24" s="369"/>
+      <c r="BA24" s="369"/>
+      <c r="BB24" s="369"/>
+      <c r="BC24" s="369"/>
+      <c r="BD24" s="369"/>
+      <c r="BE24" s="369"/>
+      <c r="BF24" s="369"/>
+      <c r="BG24" s="369"/>
+      <c r="BH24" s="369"/>
+      <c r="BI24" s="370"/>
+      <c r="BM24" s="362" t="s">
         <v>91</v>
       </c>
-      <c r="BN24" s="343"/>
-      <c r="BO24" s="343"/>
-      <c r="BP24" s="343"/>
-      <c r="BQ24" s="343"/>
-      <c r="BR24" s="343"/>
-      <c r="BS24" s="343"/>
-      <c r="BT24" s="343"/>
-      <c r="BU24" s="343"/>
-      <c r="BV24" s="343"/>
-      <c r="BW24" s="343"/>
-      <c r="BX24" s="343"/>
-      <c r="BY24" s="344"/>
+      <c r="BN24" s="363"/>
+      <c r="BO24" s="363"/>
+      <c r="BP24" s="363"/>
+      <c r="BQ24" s="363"/>
+      <c r="BR24" s="363"/>
+      <c r="BS24" s="363"/>
+      <c r="BT24" s="363"/>
+      <c r="BU24" s="363"/>
+      <c r="BV24" s="363"/>
+      <c r="BW24" s="363"/>
+      <c r="BX24" s="363"/>
+      <c r="BY24" s="364"/>
+      <c r="CN24" s="374" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO24" s="375"/>
+      <c r="CP24" s="375"/>
+      <c r="CQ24" s="375"/>
+      <c r="CR24" s="375"/>
+      <c r="CS24" s="375"/>
+      <c r="CT24" s="375"/>
+      <c r="CU24" s="375"/>
+      <c r="CV24" s="375"/>
+      <c r="CW24" s="375"/>
+      <c r="CX24" s="375"/>
+      <c r="CY24" s="375"/>
+      <c r="CZ24" s="376"/>
     </row>
-    <row r="25" spans="5:77" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH25" s="255">
         <v>1</v>
       </c>
@@ -29243,30 +32449,51 @@
       <c r="BG25" s="257"/>
       <c r="BH25" s="257"/>
       <c r="BI25" s="258"/>
-      <c r="BM25" s="345" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN25" s="346"/>
-      <c r="BO25" s="346"/>
-      <c r="BP25" s="346"/>
-      <c r="BQ25" s="346"/>
-      <c r="BR25" s="346"/>
-      <c r="BS25" s="346"/>
-      <c r="BT25" s="346"/>
-      <c r="BU25" s="346"/>
-      <c r="BV25" s="346"/>
-      <c r="BW25" s="346"/>
-      <c r="BX25" s="346"/>
-      <c r="BY25" s="347"/>
+      <c r="BM25" s="347" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN25" s="348"/>
+      <c r="BO25" s="348"/>
+      <c r="BP25" s="348"/>
+      <c r="BQ25" s="348"/>
+      <c r="BR25" s="348"/>
+      <c r="BS25" s="348"/>
+      <c r="BT25" s="348"/>
+      <c r="BU25" s="348"/>
+      <c r="BV25" s="348"/>
+      <c r="BW25" s="348"/>
+      <c r="BX25" s="348"/>
+      <c r="BY25" s="349"/>
+      <c r="CN25" s="255">
+        <v>1</v>
+      </c>
+      <c r="CO25" s="256" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP25" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ25" s="256" t="s">
+        <v>27</v>
+      </c>
+      <c r="CR25" s="257"/>
+      <c r="CS25" s="257"/>
+      <c r="CT25" s="257"/>
+      <c r="CU25" s="257"/>
+      <c r="CV25" s="257"/>
+      <c r="CW25" s="257"/>
+      <c r="CX25" s="257"/>
+      <c r="CY25" s="257"/>
+      <c r="CZ25" s="258"/>
     </row>
-    <row r="26" spans="5:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U26" s="354" t="s">
+    <row r="26" spans="5:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="377" t="s">
         <v>90</v>
       </c>
-      <c r="V26" s="355"/>
-      <c r="W26" s="355"/>
-      <c r="X26" s="355"/>
-      <c r="Y26" s="356"/>
+      <c r="V26" s="378"/>
+      <c r="W26" s="378"/>
+      <c r="X26" s="378"/>
+      <c r="Y26" s="379"/>
       <c r="AH26" s="253">
         <v>2</v>
       </c>
@@ -29313,30 +32540,53 @@
       <c r="BG26" s="192"/>
       <c r="BH26" s="192"/>
       <c r="BI26" s="254"/>
-      <c r="BM26" s="345" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN26" s="346"/>
-      <c r="BO26" s="346"/>
-      <c r="BP26" s="346"/>
-      <c r="BQ26" s="346"/>
-      <c r="BR26" s="346"/>
-      <c r="BS26" s="346"/>
-      <c r="BT26" s="346"/>
-      <c r="BU26" s="346"/>
-      <c r="BV26" s="346"/>
-      <c r="BW26" s="346"/>
-      <c r="BX26" s="346"/>
-      <c r="BY26" s="347"/>
+      <c r="BM26" s="347" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN26" s="348"/>
+      <c r="BO26" s="348"/>
+      <c r="BP26" s="348"/>
+      <c r="BQ26" s="348"/>
+      <c r="BR26" s="348"/>
+      <c r="BS26" s="348"/>
+      <c r="BT26" s="348"/>
+      <c r="BU26" s="348"/>
+      <c r="BV26" s="348"/>
+      <c r="BW26" s="348"/>
+      <c r="BX26" s="348"/>
+      <c r="BY26" s="349"/>
+      <c r="CN26" s="253">
+        <v>2</v>
+      </c>
+      <c r="CO26" s="252" t="s">
+        <v>17</v>
+      </c>
+      <c r="CP26" s="252" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ26" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR26" s="252" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS26" s="192"/>
+      <c r="CT26" s="192"/>
+      <c r="CU26" s="192"/>
+      <c r="CV26" s="192"/>
+      <c r="CW26" s="192"/>
+      <c r="CX26" s="192"/>
+      <c r="CY26" s="192"/>
+      <c r="CZ26" s="254"/>
     </row>
-    <row r="27" spans="5:77" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U27" s="357" t="s">
+    <row r="27" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U27" s="380" t="s">
         <v>96</v>
       </c>
-      <c r="V27" s="358"/>
-      <c r="W27" s="358"/>
-      <c r="X27" s="358"/>
-      <c r="Y27" s="359"/>
+      <c r="V27" s="381"/>
+      <c r="W27" s="381"/>
+      <c r="X27" s="381"/>
+      <c r="Y27" s="382"/>
       <c r="AH27" s="253">
         <v>3</v>
       </c>
@@ -29387,30 +32637,55 @@
       <c r="BG27" s="192"/>
       <c r="BH27" s="192"/>
       <c r="BI27" s="254"/>
-      <c r="BM27" s="345" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN27" s="346"/>
-      <c r="BO27" s="346"/>
-      <c r="BP27" s="346"/>
-      <c r="BQ27" s="346"/>
-      <c r="BR27" s="346"/>
-      <c r="BS27" s="346"/>
-      <c r="BT27" s="346"/>
-      <c r="BU27" s="346"/>
-      <c r="BV27" s="346"/>
-      <c r="BW27" s="346"/>
-      <c r="BX27" s="346"/>
-      <c r="BY27" s="347"/>
+      <c r="BM27" s="347" t="s">
+        <v>118</v>
+      </c>
+      <c r="BN27" s="348"/>
+      <c r="BO27" s="348"/>
+      <c r="BP27" s="348"/>
+      <c r="BQ27" s="348"/>
+      <c r="BR27" s="348"/>
+      <c r="BS27" s="348"/>
+      <c r="BT27" s="348"/>
+      <c r="BU27" s="348"/>
+      <c r="BV27" s="348"/>
+      <c r="BW27" s="348"/>
+      <c r="BX27" s="348"/>
+      <c r="BY27" s="349"/>
+      <c r="CN27" s="253">
+        <v>3</v>
+      </c>
+      <c r="CO27" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP27" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ27" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="CR27" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="CS27" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="CT27" s="192"/>
+      <c r="CU27" s="192"/>
+      <c r="CV27" s="192"/>
+      <c r="CW27" s="192"/>
+      <c r="CX27" s="192"/>
+      <c r="CY27" s="192"/>
+      <c r="CZ27" s="254"/>
     </row>
-    <row r="28" spans="5:77" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U28" s="360" t="s">
+    <row r="28" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U28" s="383" t="s">
         <v>91</v>
       </c>
-      <c r="V28" s="361"/>
-      <c r="W28" s="361"/>
-      <c r="X28" s="361"/>
-      <c r="Y28" s="362"/>
+      <c r="V28" s="384"/>
+      <c r="W28" s="384"/>
+      <c r="X28" s="384"/>
+      <c r="Y28" s="385"/>
       <c r="AH28" s="259">
         <v>4</v>
       </c>
@@ -29465,30 +32740,69 @@
       <c r="BG28" s="200"/>
       <c r="BH28" s="200"/>
       <c r="BI28" s="261"/>
-      <c r="BM28" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN28" s="346"/>
-      <c r="BO28" s="346"/>
-      <c r="BP28" s="346"/>
-      <c r="BQ28" s="346"/>
-      <c r="BR28" s="346"/>
-      <c r="BS28" s="346"/>
-      <c r="BT28" s="346"/>
-      <c r="BU28" s="346"/>
-      <c r="BV28" s="346"/>
-      <c r="BW28" s="346"/>
-      <c r="BX28" s="346"/>
-      <c r="BY28" s="347"/>
+      <c r="BM28" s="347" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN28" s="348"/>
+      <c r="BO28" s="348"/>
+      <c r="BP28" s="348"/>
+      <c r="BQ28" s="348"/>
+      <c r="BR28" s="348"/>
+      <c r="BS28" s="348"/>
+      <c r="BT28" s="348"/>
+      <c r="BU28" s="348"/>
+      <c r="BV28" s="348"/>
+      <c r="BW28" s="348"/>
+      <c r="BX28" s="348"/>
+      <c r="BY28" s="349"/>
+      <c r="CN28" s="456" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO28" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP28" s="458" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ28" s="458" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR28" s="210" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS28" s="210" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT28" s="210" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU28" s="210" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV28" s="460" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW28" s="210" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX28" s="210" t="s">
+        <v>10</v>
+      </c>
+      <c r="CY28" s="210" t="s">
+        <v>11</v>
+      </c>
+      <c r="CZ28" s="211" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="29" spans="5:77" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U29" s="363" t="s">
+    <row r="29" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U29" s="365" t="s">
         <v>97</v>
       </c>
-      <c r="V29" s="364"/>
-      <c r="W29" s="364"/>
-      <c r="X29" s="364"/>
-      <c r="Y29" s="365"/>
+      <c r="V29" s="366"/>
+      <c r="W29" s="366"/>
+      <c r="X29" s="366"/>
+      <c r="Y29" s="367"/>
       <c r="AH29" s="251" t="s">
         <v>0</v>
       </c>
@@ -29579,7 +32893,7 @@
       <c r="BP29" s="272" t="s">
         <v>3</v>
       </c>
-      <c r="BQ29" s="272" t="s">
+      <c r="BQ29" s="464" t="s">
         <v>4</v>
       </c>
       <c r="BR29" s="272" t="s">
@@ -29606,8 +32920,47 @@
       <c r="BY29" s="273" t="s">
         <v>12</v>
       </c>
+      <c r="CN29" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO29" s="457" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP29" s="213" t="s">
+        <v>15</v>
+      </c>
+      <c r="CQ29" s="213" t="s">
+        <v>16</v>
+      </c>
+      <c r="CR29" s="457" t="s">
+        <v>17</v>
+      </c>
+      <c r="CS29" s="213" t="s">
+        <v>18</v>
+      </c>
+      <c r="CT29" s="213" t="s">
+        <v>19</v>
+      </c>
+      <c r="CU29" s="213" t="s">
+        <v>20</v>
+      </c>
+      <c r="CV29" s="213" t="s">
+        <v>21</v>
+      </c>
+      <c r="CW29" s="213" t="s">
+        <v>22</v>
+      </c>
+      <c r="CX29" s="213" t="s">
+        <v>23</v>
+      </c>
+      <c r="CY29" s="213" t="s">
+        <v>24</v>
+      </c>
+      <c r="CZ29" s="214" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="30" spans="5:77" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH30" s="212" t="s">
         <v>13</v>
       </c>
@@ -29716,7 +33069,7 @@
       <c r="BV30" s="275" t="s">
         <v>22</v>
       </c>
-      <c r="BW30" s="275" t="s">
+      <c r="BW30" s="466" t="s">
         <v>23</v>
       </c>
       <c r="BX30" s="275" t="s">
@@ -29725,8 +33078,45 @@
       <c r="BY30" s="276" t="s">
         <v>25</v>
       </c>
+      <c r="CN30" s="218"/>
+      <c r="CO30" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP30" s="219" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ30" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="CR30" s="219" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS30" s="219" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT30" s="219" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU30" s="219" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV30" s="219" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW30" s="219" t="s">
+        <v>8</v>
+      </c>
+      <c r="CX30" s="219" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY30" s="219" t="s">
+        <v>10</v>
+      </c>
+      <c r="CZ30" s="222" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="31" spans="5:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH31" s="218"/>
       <c r="AI31" s="219" t="s">
         <v>0</v>
@@ -29838,8 +33228,23 @@
       <c r="BY31" s="270" t="s">
         <v>11</v>
       </c>
+      <c r="CN31" s="223">
+        <v>1</v>
+      </c>
+      <c r="CO31" s="162"/>
+      <c r="CP31" s="162"/>
+      <c r="CQ31" s="162"/>
+      <c r="CR31" s="162"/>
+      <c r="CS31" s="162"/>
+      <c r="CT31" s="162"/>
+      <c r="CU31" s="162"/>
+      <c r="CV31" s="162"/>
+      <c r="CW31" s="162"/>
+      <c r="CX31" s="162"/>
+      <c r="CY31" s="162"/>
+      <c r="CZ31" s="225"/>
     </row>
-    <row r="32" spans="5:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH32" s="223">
         <v>1</v>
       </c>
@@ -29885,8 +33290,23 @@
       <c r="BW32" s="195"/>
       <c r="BX32" s="195"/>
       <c r="BY32" s="263"/>
+      <c r="CN32" s="223">
+        <v>2</v>
+      </c>
+      <c r="CO32" s="162"/>
+      <c r="CP32" s="162"/>
+      <c r="CQ32" s="162"/>
+      <c r="CR32" s="162"/>
+      <c r="CS32" s="162"/>
+      <c r="CT32" s="162"/>
+      <c r="CU32" s="162"/>
+      <c r="CV32" s="162"/>
+      <c r="CW32" s="162"/>
+      <c r="CX32" s="162"/>
+      <c r="CY32" s="162"/>
+      <c r="CZ32" s="225"/>
     </row>
-    <row r="33" spans="34:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH33" s="223">
         <v>2</v>
       </c>
@@ -29921,9 +33341,15 @@
         <v>2</v>
       </c>
       <c r="BN33" s="162"/>
-      <c r="BO33" s="162"/>
-      <c r="BP33" s="162"/>
-      <c r="BQ33" s="162"/>
+      <c r="BO33" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP33" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="162" t="s">
+        <v>17</v>
+      </c>
       <c r="BR33" s="162"/>
       <c r="BS33" s="162"/>
       <c r="BT33" s="162"/>
@@ -29932,8 +33358,23 @@
       <c r="BW33" s="195"/>
       <c r="BX33" s="195"/>
       <c r="BY33" s="263"/>
+      <c r="CN33" s="223">
+        <v>3</v>
+      </c>
+      <c r="CO33" s="162"/>
+      <c r="CP33" s="162"/>
+      <c r="CQ33" s="162"/>
+      <c r="CR33" s="162"/>
+      <c r="CS33" s="162"/>
+      <c r="CT33" s="162"/>
+      <c r="CU33" s="162"/>
+      <c r="CV33" s="162"/>
+      <c r="CW33" s="162"/>
+      <c r="CX33" s="162"/>
+      <c r="CY33" s="162"/>
+      <c r="CZ33" s="225"/>
     </row>
-    <row r="34" spans="34:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH34" s="223">
         <v>3</v>
       </c>
@@ -29968,10 +33409,14 @@
         <v>3</v>
       </c>
       <c r="BN34" s="162"/>
-      <c r="BO34" s="162"/>
+      <c r="BO34" s="162" t="s">
+        <v>11</v>
+      </c>
       <c r="BP34" s="162"/>
       <c r="BQ34" s="162"/>
-      <c r="BR34" s="162"/>
+      <c r="BR34" s="162" t="s">
+        <v>0</v>
+      </c>
       <c r="BS34" s="162"/>
       <c r="BT34" s="162"/>
       <c r="BU34" s="162"/>
@@ -29979,8 +33424,25 @@
       <c r="BW34" s="195"/>
       <c r="BX34" s="195"/>
       <c r="BY34" s="263"/>
+      <c r="CN34" s="223">
+        <v>4</v>
+      </c>
+      <c r="CO34" s="162"/>
+      <c r="CP34" s="162"/>
+      <c r="CQ34" s="162"/>
+      <c r="CR34" s="162"/>
+      <c r="CS34" s="459" t="s">
+        <v>17</v>
+      </c>
+      <c r="CT34" s="162"/>
+      <c r="CU34" s="162"/>
+      <c r="CV34" s="226"/>
+      <c r="CW34" s="162"/>
+      <c r="CX34" s="162"/>
+      <c r="CY34" s="162"/>
+      <c r="CZ34" s="225"/>
     </row>
-    <row r="35" spans="34:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH35" s="223">
         <v>4</v>
       </c>
@@ -30015,19 +33477,54 @@
         <v>4</v>
       </c>
       <c r="BN35" s="162"/>
-      <c r="BO35" s="162"/>
+      <c r="BO35" s="226" t="s">
+        <v>8</v>
+      </c>
       <c r="BP35" s="162"/>
       <c r="BQ35" s="162"/>
       <c r="BR35" s="162"/>
-      <c r="BS35" s="162"/>
+      <c r="BS35" s="465" t="s">
+        <v>4</v>
+      </c>
       <c r="BT35" s="162"/>
       <c r="BU35" s="162"/>
       <c r="BV35" s="195"/>
       <c r="BW35" s="195"/>
       <c r="BX35" s="195"/>
       <c r="BY35" s="263"/>
+      <c r="CA35" s="447" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB35" s="448"/>
+      <c r="CC35" s="448"/>
+      <c r="CD35" s="448"/>
+      <c r="CE35" s="449"/>
+      <c r="CH35" s="453" t="s">
+        <v>90</v>
+      </c>
+      <c r="CI35" s="454"/>
+      <c r="CJ35" s="454"/>
+      <c r="CK35" s="454"/>
+      <c r="CL35" s="455"/>
+      <c r="CN35" s="223">
+        <v>5</v>
+      </c>
+      <c r="CO35" s="162"/>
+      <c r="CP35" s="228"/>
+      <c r="CQ35" s="162"/>
+      <c r="CR35" s="459" t="s">
+        <v>14</v>
+      </c>
+      <c r="CS35" s="160"/>
+      <c r="CT35" s="162"/>
+      <c r="CU35" s="162"/>
+      <c r="CV35" s="162"/>
+      <c r="CW35" s="162"/>
+      <c r="CX35" s="162"/>
+      <c r="CY35" s="162"/>
+      <c r="CZ35" s="225"/>
     </row>
-    <row r="36" spans="34:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH36" s="223">
         <v>5</v>
       </c>
@@ -30062,19 +33559,52 @@
         <v>5</v>
       </c>
       <c r="BN36" s="162"/>
-      <c r="BO36" s="228"/>
+      <c r="BO36" s="228" t="s">
+        <v>6</v>
+      </c>
       <c r="BP36" s="162"/>
       <c r="BQ36" s="162"/>
       <c r="BR36" s="162"/>
       <c r="BS36" s="162"/>
-      <c r="BT36" s="162"/>
+      <c r="BT36" s="162" t="s">
+        <v>5</v>
+      </c>
       <c r="BU36" s="162"/>
       <c r="BV36" s="195"/>
       <c r="BW36" s="195"/>
       <c r="BX36" s="195"/>
       <c r="BY36" s="263"/>
+      <c r="CA36" s="444" t="s">
+        <v>115</v>
+      </c>
+      <c r="CB36" s="445"/>
+      <c r="CC36" s="445"/>
+      <c r="CD36" s="445"/>
+      <c r="CE36" s="446"/>
+      <c r="CH36" s="450" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI36" s="451"/>
+      <c r="CJ36" s="451"/>
+      <c r="CK36" s="451"/>
+      <c r="CL36" s="452"/>
+      <c r="CN36" s="223">
+        <v>6</v>
+      </c>
+      <c r="CO36" s="162"/>
+      <c r="CP36" s="162"/>
+      <c r="CQ36" s="162"/>
+      <c r="CR36" s="162"/>
+      <c r="CS36" s="162"/>
+      <c r="CT36" s="162"/>
+      <c r="CU36" s="162"/>
+      <c r="CV36" s="162"/>
+      <c r="CW36" s="162"/>
+      <c r="CX36" s="162"/>
+      <c r="CY36" s="162"/>
+      <c r="CZ36" s="225"/>
     </row>
-    <row r="37" spans="34:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH37" s="223">
         <v>6</v>
       </c>
@@ -30109,19 +33639,58 @@
         <v>6</v>
       </c>
       <c r="BN37" s="162"/>
-      <c r="BO37" s="162"/>
-      <c r="BP37" s="162"/>
-      <c r="BQ37" s="162"/>
-      <c r="BR37" s="162"/>
-      <c r="BS37" s="162"/>
+      <c r="BO37" s="162" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP37" s="162" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ37" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR37" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="BS37" s="162" t="s">
+        <v>4</v>
+      </c>
       <c r="BT37" s="162"/>
       <c r="BU37" s="162"/>
       <c r="BV37" s="195"/>
       <c r="BW37" s="195"/>
       <c r="BX37" s="195"/>
       <c r="BY37" s="263"/>
+      <c r="CA37" s="439" t="s">
+        <v>111</v>
+      </c>
+      <c r="CB37" s="438"/>
+      <c r="CC37" s="438"/>
+      <c r="CD37" s="438"/>
+      <c r="CE37" s="440"/>
+      <c r="CH37" s="442" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI37" s="441"/>
+      <c r="CJ37" s="441"/>
+      <c r="CK37" s="441"/>
+      <c r="CL37" s="443"/>
+      <c r="CN37" s="223">
+        <v>7</v>
+      </c>
+      <c r="CO37" s="162"/>
+      <c r="CP37" s="228"/>
+      <c r="CQ37" s="162"/>
+      <c r="CR37" s="162"/>
+      <c r="CS37" s="162"/>
+      <c r="CT37" s="162"/>
+      <c r="CU37" s="162"/>
+      <c r="CV37" s="162"/>
+      <c r="CW37" s="162"/>
+      <c r="CX37" s="162"/>
+      <c r="CY37" s="162"/>
+      <c r="CZ37" s="225"/>
     </row>
-    <row r="38" spans="34:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH38" s="223">
         <v>7</v>
       </c>
@@ -30156,19 +33725,48 @@
         <v>7</v>
       </c>
       <c r="BN38" s="162"/>
-      <c r="BO38" s="228"/>
+      <c r="BO38" s="228" t="s">
+        <v>24</v>
+      </c>
       <c r="BP38" s="162"/>
       <c r="BQ38" s="162"/>
       <c r="BR38" s="162"/>
       <c r="BS38" s="162"/>
-      <c r="BT38" s="162"/>
+      <c r="BT38" s="160"/>
       <c r="BU38" s="162"/>
       <c r="BV38" s="195"/>
       <c r="BW38" s="195"/>
       <c r="BX38" s="195"/>
       <c r="BY38" s="263"/>
+      <c r="CA38" s="428" t="s">
+        <v>112</v>
+      </c>
+      <c r="CB38" s="429"/>
+      <c r="CC38" s="429"/>
+      <c r="CD38" s="429"/>
+      <c r="CE38" s="430"/>
+      <c r="CH38" s="461"/>
+      <c r="CI38" s="462"/>
+      <c r="CJ38" s="462"/>
+      <c r="CK38" s="462"/>
+      <c r="CL38" s="463"/>
+      <c r="CN38" s="223">
+        <v>8</v>
+      </c>
+      <c r="CO38" s="162"/>
+      <c r="CP38" s="162"/>
+      <c r="CQ38" s="162"/>
+      <c r="CR38" s="162"/>
+      <c r="CS38" s="162"/>
+      <c r="CT38" s="162"/>
+      <c r="CU38" s="162"/>
+      <c r="CV38" s="162"/>
+      <c r="CW38" s="162"/>
+      <c r="CX38" s="162"/>
+      <c r="CY38" s="162"/>
+      <c r="CZ38" s="225"/>
     </row>
-    <row r="39" spans="34:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="34:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH39" s="223">
         <v>8</v>
       </c>
@@ -30214,8 +33812,35 @@
       <c r="BW39" s="195"/>
       <c r="BX39" s="195"/>
       <c r="BY39" s="263"/>
+      <c r="CA39" s="428" t="s">
+        <v>113</v>
+      </c>
+      <c r="CB39" s="429"/>
+      <c r="CC39" s="429"/>
+      <c r="CD39" s="429"/>
+      <c r="CE39" s="430"/>
+      <c r="CH39" s="461"/>
+      <c r="CI39" s="462"/>
+      <c r="CJ39" s="462"/>
+      <c r="CK39" s="462"/>
+      <c r="CL39" s="463"/>
+      <c r="CN39" s="223">
+        <v>9</v>
+      </c>
+      <c r="CO39" s="162"/>
+      <c r="CP39" s="162"/>
+      <c r="CQ39" s="162"/>
+      <c r="CR39" s="162"/>
+      <c r="CS39" s="162"/>
+      <c r="CT39" s="162"/>
+      <c r="CU39" s="162"/>
+      <c r="CV39" s="162"/>
+      <c r="CW39" s="162"/>
+      <c r="CX39" s="162"/>
+      <c r="CY39" s="162"/>
+      <c r="CZ39" s="225"/>
     </row>
-    <row r="40" spans="34:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="34:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH40" s="223">
         <v>9</v>
       </c>
@@ -30261,8 +33886,35 @@
       <c r="BW40" s="195"/>
       <c r="BX40" s="195"/>
       <c r="BY40" s="263"/>
+      <c r="CA40" s="431" t="s">
+        <v>114</v>
+      </c>
+      <c r="CB40" s="432"/>
+      <c r="CC40" s="432"/>
+      <c r="CD40" s="432"/>
+      <c r="CE40" s="433"/>
+      <c r="CH40" s="461"/>
+      <c r="CI40" s="462"/>
+      <c r="CJ40" s="462"/>
+      <c r="CK40" s="462"/>
+      <c r="CL40" s="463"/>
+      <c r="CN40" s="223">
+        <v>10</v>
+      </c>
+      <c r="CO40" s="162"/>
+      <c r="CP40" s="228"/>
+      <c r="CQ40" s="162"/>
+      <c r="CR40" s="162"/>
+      <c r="CS40" s="162"/>
+      <c r="CT40" s="162"/>
+      <c r="CU40" s="162"/>
+      <c r="CV40" s="162"/>
+      <c r="CW40" s="162"/>
+      <c r="CX40" s="162"/>
+      <c r="CY40" s="162"/>
+      <c r="CZ40" s="225"/>
     </row>
-    <row r="41" spans="34:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="34:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH41" s="223">
         <v>10</v>
       </c>
@@ -30308,8 +33960,33 @@
       <c r="BW41" s="195"/>
       <c r="BX41" s="195"/>
       <c r="BY41" s="263"/>
+      <c r="CA41" s="422"/>
+      <c r="CB41" s="423"/>
+      <c r="CC41" s="423"/>
+      <c r="CD41" s="423"/>
+      <c r="CE41" s="424"/>
+      <c r="CH41" s="422"/>
+      <c r="CI41" s="423"/>
+      <c r="CJ41" s="423"/>
+      <c r="CK41" s="423"/>
+      <c r="CL41" s="424"/>
+      <c r="CN41" s="223">
+        <v>11</v>
+      </c>
+      <c r="CO41" s="162"/>
+      <c r="CP41" s="162"/>
+      <c r="CQ41" s="162"/>
+      <c r="CR41" s="162"/>
+      <c r="CS41" s="162"/>
+      <c r="CT41" s="162"/>
+      <c r="CU41" s="162"/>
+      <c r="CV41" s="162"/>
+      <c r="CW41" s="162"/>
+      <c r="CX41" s="162"/>
+      <c r="CY41" s="162"/>
+      <c r="CZ41" s="225"/>
     </row>
-    <row r="42" spans="34:77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="34:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH42" s="223">
         <v>11</v>
       </c>
@@ -30355,8 +34032,35 @@
       <c r="BW42" s="195"/>
       <c r="BX42" s="195"/>
       <c r="BY42" s="263"/>
+      <c r="CA42" s="422"/>
+      <c r="CB42" s="423"/>
+      <c r="CC42" s="423"/>
+      <c r="CD42" s="423"/>
+      <c r="CE42" s="424"/>
+      <c r="CF42" s="437"/>
+      <c r="CG42" s="437"/>
+      <c r="CH42" s="422"/>
+      <c r="CI42" s="423"/>
+      <c r="CJ42" s="423"/>
+      <c r="CK42" s="423"/>
+      <c r="CL42" s="424"/>
+      <c r="CN42" s="230">
+        <v>12</v>
+      </c>
+      <c r="CO42" s="213"/>
+      <c r="CP42" s="213"/>
+      <c r="CQ42" s="213"/>
+      <c r="CR42" s="213"/>
+      <c r="CS42" s="213"/>
+      <c r="CT42" s="213"/>
+      <c r="CU42" s="213"/>
+      <c r="CV42" s="213"/>
+      <c r="CW42" s="213"/>
+      <c r="CX42" s="213"/>
+      <c r="CY42" s="213"/>
+      <c r="CZ42" s="214"/>
     </row>
-    <row r="43" spans="34:77" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="34:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH43" s="230">
         <v>12</v>
       </c>
@@ -30402,9 +34106,53 @@
       <c r="BW43" s="266"/>
       <c r="BX43" s="266"/>
       <c r="BY43" s="267"/>
+      <c r="CA43" s="425"/>
+      <c r="CB43" s="426"/>
+      <c r="CC43" s="426"/>
+      <c r="CD43" s="426"/>
+      <c r="CE43" s="427"/>
+      <c r="CF43" s="437"/>
+      <c r="CG43" s="437"/>
+      <c r="CH43" s="425"/>
+      <c r="CI43" s="426"/>
+      <c r="CJ43" s="426"/>
+      <c r="CK43" s="426"/>
+      <c r="CL43" s="427"/>
+      <c r="CN43" s="434"/>
+      <c r="CO43" s="435"/>
+      <c r="CP43" s="435"/>
+      <c r="CQ43" s="435"/>
+      <c r="CR43" s="435"/>
+      <c r="CS43" s="435"/>
+      <c r="CT43" s="435"/>
+      <c r="CU43" s="435"/>
+      <c r="CV43" s="435"/>
+      <c r="CW43" s="435"/>
+      <c r="CX43" s="435"/>
+      <c r="CY43" s="435"/>
+      <c r="CZ43" s="436"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="36">
+    <mergeCell ref="CH43:CL43"/>
+    <mergeCell ref="CH39:CL39"/>
+    <mergeCell ref="CH40:CL40"/>
+    <mergeCell ref="CH41:CL41"/>
+    <mergeCell ref="CH42:CL42"/>
+    <mergeCell ref="CN24:CZ24"/>
+    <mergeCell ref="CA42:CE42"/>
+    <mergeCell ref="CA43:CE43"/>
+    <mergeCell ref="CA35:CE35"/>
+    <mergeCell ref="CA36:CE36"/>
+    <mergeCell ref="CH35:CL35"/>
+    <mergeCell ref="CH36:CL36"/>
+    <mergeCell ref="CH37:CL37"/>
+    <mergeCell ref="CH38:CL38"/>
+    <mergeCell ref="CA37:CE37"/>
+    <mergeCell ref="CA38:CE38"/>
+    <mergeCell ref="CA39:CE39"/>
+    <mergeCell ref="CA40:CE40"/>
+    <mergeCell ref="CA41:CE41"/>
     <mergeCell ref="AH24:AT24"/>
     <mergeCell ref="AW24:BI24"/>
     <mergeCell ref="U26:Y26"/>
@@ -30440,21 +34188,21 @@
   <sheetData>
     <row r="3" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="372" t="s">
+      <c r="C4" s="386" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="373"/>
-      <c r="E4" s="373"/>
-      <c r="F4" s="373"/>
-      <c r="G4" s="373"/>
-      <c r="H4" s="373"/>
-      <c r="I4" s="373"/>
-      <c r="J4" s="373"/>
-      <c r="K4" s="373"/>
-      <c r="L4" s="373"/>
-      <c r="M4" s="373"/>
-      <c r="N4" s="373"/>
-      <c r="O4" s="374"/>
+      <c r="D4" s="387"/>
+      <c r="E4" s="387"/>
+      <c r="F4" s="387"/>
+      <c r="G4" s="387"/>
+      <c r="H4" s="387"/>
+      <c r="I4" s="387"/>
+      <c r="J4" s="387"/>
+      <c r="K4" s="387"/>
+      <c r="L4" s="387"/>
+      <c r="M4" s="387"/>
+      <c r="N4" s="387"/>
+      <c r="O4" s="388"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
@@ -30508,11 +34256,11 @@
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="375" t="s">
+      <c r="M6" s="389" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="376"/>
-      <c r="O6" s="377"/>
+      <c r="N6" s="390"/>
+      <c r="O6" s="391"/>
     </row>
     <row r="7" spans="3:19" ht="21" x14ac:dyDescent="0.25">
       <c r="C7" s="25">
@@ -30554,11 +34302,11 @@
       <c r="J8" s="12"/>
       <c r="K8" s="7"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="375" t="s">
+      <c r="M8" s="389" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="376"/>
-      <c r="O8" s="377"/>
+      <c r="N8" s="390"/>
+      <c r="O8" s="391"/>
     </row>
     <row r="9" spans="3:19" ht="21" x14ac:dyDescent="0.25">
       <c r="C9" s="25">
@@ -30600,11 +34348,11 @@
       <c r="J10" s="36"/>
       <c r="K10" s="7"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="375" t="s">
+      <c r="M10" s="389" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="376"/>
-      <c r="O10" s="377"/>
+      <c r="N10" s="390"/>
+      <c r="O10" s="391"/>
     </row>
     <row r="11" spans="3:19" ht="21" x14ac:dyDescent="0.25">
       <c r="C11" s="25">
@@ -30621,11 +34369,11 @@
       <c r="J11" s="12"/>
       <c r="K11" s="7"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="378" t="s">
+      <c r="M11" s="392" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="379"/>
-      <c r="O11" s="380"/>
+      <c r="N11" s="393"/>
+      <c r="O11" s="394"/>
     </row>
     <row r="12" spans="3:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="25">
@@ -30640,11 +34388,11 @@
       <c r="J12" s="12"/>
       <c r="K12" s="38"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="375">
+      <c r="M12" s="389">
         <v>15</v>
       </c>
-      <c r="N12" s="376"/>
-      <c r="O12" s="377"/>
+      <c r="N12" s="390"/>
+      <c r="O12" s="391"/>
     </row>
     <row r="13" spans="3:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="26">
@@ -30679,21 +34427,21 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="3:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="372" t="s">
+      <c r="C15" s="386" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
-      <c r="F15" s="373"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="373"/>
-      <c r="I15" s="373"/>
-      <c r="J15" s="373"/>
-      <c r="K15" s="373"/>
-      <c r="L15" s="373"/>
-      <c r="M15" s="373"/>
-      <c r="N15" s="373"/>
-      <c r="O15" s="374"/>
+      <c r="D15" s="387"/>
+      <c r="E15" s="387"/>
+      <c r="F15" s="387"/>
+      <c r="G15" s="387"/>
+      <c r="H15" s="387"/>
+      <c r="I15" s="387"/>
+      <c r="J15" s="387"/>
+      <c r="K15" s="387"/>
+      <c r="L15" s="387"/>
+      <c r="M15" s="387"/>
+      <c r="N15" s="387"/>
+      <c r="O15" s="388"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
@@ -31071,17 +34819,17 @@
     </row>
     <row r="2" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="47"/>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="413" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
-      <c r="J2" s="400"/>
-      <c r="K2" s="401"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="414"/>
+      <c r="G2" s="414"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="414"/>
+      <c r="J2" s="414"/>
+      <c r="K2" s="415"/>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
       <c r="N2" s="52"/>
@@ -31411,72 +35159,72 @@
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="47"/>
-      <c r="C15" s="402" t="s">
+      <c r="C15" s="416" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="403"/>
-      <c r="E15" s="404"/>
-      <c r="F15" s="402" t="s">
+      <c r="D15" s="417"/>
+      <c r="E15" s="418"/>
+      <c r="F15" s="416" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="403"/>
-      <c r="H15" s="404"/>
-      <c r="I15" s="402" t="s">
+      <c r="G15" s="417"/>
+      <c r="H15" s="418"/>
+      <c r="I15" s="416" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="403"/>
-      <c r="K15" s="404"/>
+      <c r="J15" s="417"/>
+      <c r="K15" s="418"/>
       <c r="L15" s="52"/>
-      <c r="M15" s="381" t="s">
+      <c r="M15" s="395" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="382"/>
-      <c r="O15" s="382"/>
-      <c r="P15" s="383"/>
+      <c r="N15" s="396"/>
+      <c r="O15" s="396"/>
+      <c r="P15" s="397"/>
       <c r="Q15" s="48"/>
     </row>
     <row r="16" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="47"/>
-      <c r="C16" s="405"/>
-      <c r="D16" s="406"/>
-      <c r="E16" s="407"/>
-      <c r="F16" s="405"/>
-      <c r="G16" s="406"/>
-      <c r="H16" s="407"/>
-      <c r="I16" s="405"/>
-      <c r="J16" s="406"/>
-      <c r="K16" s="407"/>
+      <c r="C16" s="419"/>
+      <c r="D16" s="420"/>
+      <c r="E16" s="421"/>
+      <c r="F16" s="419"/>
+      <c r="G16" s="420"/>
+      <c r="H16" s="421"/>
+      <c r="I16" s="419"/>
+      <c r="J16" s="420"/>
+      <c r="K16" s="421"/>
       <c r="L16" s="52"/>
-      <c r="M16" s="384"/>
-      <c r="N16" s="385"/>
-      <c r="O16" s="385"/>
-      <c r="P16" s="386"/>
+      <c r="M16" s="398"/>
+      <c r="N16" s="399"/>
+      <c r="O16" s="399"/>
+      <c r="P16" s="400"/>
       <c r="Q16" s="48"/>
     </row>
     <row r="17" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="47"/>
-      <c r="C17" s="396" t="s">
+      <c r="C17" s="410" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="397"/>
-      <c r="E17" s="398"/>
-      <c r="F17" s="396" t="s">
+      <c r="D17" s="411"/>
+      <c r="E17" s="412"/>
+      <c r="F17" s="410" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="397"/>
-      <c r="H17" s="398"/>
-      <c r="I17" s="396" t="s">
+      <c r="G17" s="411"/>
+      <c r="H17" s="412"/>
+      <c r="I17" s="410" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="397"/>
-      <c r="K17" s="398"/>
+      <c r="J17" s="411"/>
+      <c r="K17" s="412"/>
       <c r="L17" s="52"/>
-      <c r="M17" s="393">
+      <c r="M17" s="407">
         <v>10</v>
       </c>
-      <c r="N17" s="394"/>
-      <c r="O17" s="394"/>
-      <c r="P17" s="395"/>
+      <c r="N17" s="408"/>
+      <c r="O17" s="408"/>
+      <c r="P17" s="409"/>
       <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="2:17" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -31499,17 +35247,17 @@
     </row>
     <row r="19" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="47"/>
-      <c r="C19" s="339" t="s">
+      <c r="C19" s="353" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="340"/>
-      <c r="E19" s="340"/>
-      <c r="F19" s="340"/>
-      <c r="G19" s="340"/>
-      <c r="H19" s="340"/>
-      <c r="I19" s="340"/>
-      <c r="J19" s="340"/>
-      <c r="K19" s="341"/>
+      <c r="D19" s="354"/>
+      <c r="E19" s="354"/>
+      <c r="F19" s="354"/>
+      <c r="G19" s="354"/>
+      <c r="H19" s="354"/>
+      <c r="I19" s="354"/>
+      <c r="J19" s="354"/>
+      <c r="K19" s="355"/>
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
       <c r="N19" s="52"/>
@@ -31847,12 +35595,12 @@
       <c r="J31" s="59"/>
       <c r="K31" s="55"/>
       <c r="L31" s="52"/>
-      <c r="M31" s="387" t="s">
+      <c r="M31" s="401" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="388"/>
-      <c r="O31" s="388"/>
-      <c r="P31" s="389"/>
+      <c r="N31" s="402"/>
+      <c r="O31" s="402"/>
+      <c r="P31" s="403"/>
       <c r="Q31" s="48"/>
     </row>
     <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -31871,10 +35619,10 @@
       <c r="J32" s="54"/>
       <c r="K32" s="55"/>
       <c r="L32" s="52"/>
-      <c r="M32" s="390"/>
-      <c r="N32" s="391"/>
-      <c r="O32" s="391"/>
-      <c r="P32" s="392"/>
+      <c r="M32" s="404"/>
+      <c r="N32" s="405"/>
+      <c r="O32" s="405"/>
+      <c r="P32" s="406"/>
       <c r="Q32" s="48"/>
     </row>
     <row r="33" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -31893,12 +35641,12 @@
       <c r="J33" s="54"/>
       <c r="K33" s="55"/>
       <c r="L33" s="52"/>
-      <c r="M33" s="396">
+      <c r="M33" s="410">
         <v>5</v>
       </c>
-      <c r="N33" s="397"/>
-      <c r="O33" s="397"/>
-      <c r="P33" s="398"/>
+      <c r="N33" s="411"/>
+      <c r="O33" s="411"/>
+      <c r="P33" s="412"/>
       <c r="Q33" s="48"/>
     </row>
     <row r="34" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
